--- a/env_ac_mfa_1_Data.xlsx
+++ b/env_ac_mfa_1_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guillaume/Downloads/env_ac_mfa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5B2EEF4F-B199-4844-AD75-A3EBD404EDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{40646449-9AAE-7C4D-91FD-85D64BFE5F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940"/>
+    <workbookView xWindow="360" yWindow="500" windowWidth="28040" windowHeight="16940"/>
   </bookViews>
   <sheets>
     <sheet name="env_ac_mfa_1_Data" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1502" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1486" uniqueCount="46">
   <si>
     <t>TIME</t>
   </si>
@@ -154,13 +154,10 @@
     <t>Serbia</t>
   </si>
   <si>
-    <t>T¸rkiye</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
-    <t>:</t>
+    <t>Turkiye</t>
   </si>
 </sst>
 </file>
@@ -168,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -647,9 +644,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1007,15 +1005,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="3" max="3" width="29.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="2"/>
+    <col min="5" max="5" width="25.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1026,13 +1025,13 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -1046,13 +1045,13 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1">
@@ -1066,13 +1065,13 @@
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1">
@@ -1086,13 +1085,13 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1">
@@ -1106,13 +1105,13 @@
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1">
@@ -1126,13 +1125,13 @@
       <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="1">
@@ -1146,13 +1145,13 @@
       <c r="B7" t="s">
         <v>14</v>
       </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="1">
@@ -1166,13 +1165,13 @@
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1">
@@ -1186,13 +1185,13 @@
       <c r="B9" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F9" s="1">
@@ -1206,13 +1205,13 @@
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F10" s="1">
@@ -1226,13 +1225,13 @@
       <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="1">
@@ -1246,13 +1245,13 @@
       <c r="B12" t="s">
         <v>19</v>
       </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="1">
@@ -1266,13 +1265,13 @@
       <c r="B13" t="s">
         <v>20</v>
       </c>
-      <c r="C13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="C13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="1">
@@ -1286,13 +1285,13 @@
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="1">
@@ -1306,13 +1305,13 @@
       <c r="B15" t="s">
         <v>22</v>
       </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1">
@@ -1326,13 +1325,13 @@
       <c r="B16" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="C16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F16" s="1">
@@ -1346,13 +1345,13 @@
       <c r="B17" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="C17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="1">
@@ -1366,13 +1365,13 @@
       <c r="B18" t="s">
         <v>25</v>
       </c>
-      <c r="C18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="C18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="1">
@@ -1386,13 +1385,13 @@
       <c r="B19" t="s">
         <v>26</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="C19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F19" s="1">
@@ -1406,13 +1405,13 @@
       <c r="B20" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="1">
@@ -1426,13 +1425,13 @@
       <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" t="s">
-        <v>7</v>
-      </c>
-      <c r="D21" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="1">
@@ -1446,13 +1445,13 @@
       <c r="B22" t="s">
         <v>29</v>
       </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="C22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1">
@@ -1466,13 +1465,13 @@
       <c r="B23" t="s">
         <v>30</v>
       </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F23" s="1">
@@ -1486,13 +1485,13 @@
       <c r="B24" t="s">
         <v>31</v>
       </c>
-      <c r="C24" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F24" s="1">
@@ -1506,13 +1505,13 @@
       <c r="B25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" t="s">
-        <v>7</v>
-      </c>
-      <c r="D25" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="C25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F25" s="1">
@@ -1526,13 +1525,13 @@
       <c r="B26" t="s">
         <v>33</v>
       </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F26" s="1">
@@ -1546,13 +1545,13 @@
       <c r="B27" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="C27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F27" s="1">
@@ -1566,13 +1565,13 @@
       <c r="B28" t="s">
         <v>35</v>
       </c>
-      <c r="C28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
+      <c r="C28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="1">
@@ -1586,13 +1585,13 @@
       <c r="B29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="C29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1">
@@ -1606,13 +1605,13 @@
       <c r="B30" t="s">
         <v>37</v>
       </c>
-      <c r="C30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" t="s">
+      <c r="C30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F30" s="1">
@@ -1626,13 +1625,13 @@
       <c r="B31" t="s">
         <v>38</v>
       </c>
-      <c r="C31" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="C31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F31" s="1">
@@ -1646,13 +1645,13 @@
       <c r="B32" t="s">
         <v>39</v>
       </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="C32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F32" s="1">
@@ -1666,13 +1665,13 @@
       <c r="B33" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
+      <c r="C33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F33" s="1">
@@ -1686,13 +1685,13 @@
       <c r="B34" t="s">
         <v>41</v>
       </c>
-      <c r="C34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="C34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F34" s="1">
@@ -1706,13 +1705,13 @@
       <c r="B35" t="s">
         <v>42</v>
       </c>
-      <c r="C35" t="s">
-        <v>7</v>
-      </c>
-      <c r="D35" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="C35" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F35" s="1">
@@ -1726,13 +1725,13 @@
       <c r="B36" t="s">
         <v>43</v>
       </c>
-      <c r="C36" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="C36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F36" s="1">
@@ -1744,15 +1743,15 @@
         <v>2012</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
-      </c>
-      <c r="C37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D37" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F37" s="1">
@@ -1764,20 +1763,18 @@
         <v>2012</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>7</v>
-      </c>
-      <c r="D38" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="1"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
@@ -1786,13 +1783,13 @@
       <c r="B39" t="s">
         <v>6</v>
       </c>
-      <c r="C39" t="s">
-        <v>7</v>
-      </c>
-      <c r="D39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" t="s">
+      <c r="C39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F39" s="1">
@@ -1806,13 +1803,13 @@
       <c r="B40" t="s">
         <v>10</v>
       </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
+      <c r="C40" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F40" s="1">
@@ -1826,13 +1823,13 @@
       <c r="B41" t="s">
         <v>11</v>
       </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="C41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F41" s="1">
@@ -1846,13 +1843,13 @@
       <c r="B42" t="s">
         <v>12</v>
       </c>
-      <c r="C42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D42" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" t="s">
+      <c r="C42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F42" s="1">
@@ -1866,13 +1863,13 @@
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43" t="s">
-        <v>7</v>
-      </c>
-      <c r="D43" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" t="s">
+      <c r="C43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="1">
@@ -1886,13 +1883,13 @@
       <c r="B44" t="s">
         <v>14</v>
       </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
+      <c r="C44" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="1">
@@ -1906,13 +1903,13 @@
       <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="C45" t="s">
-        <v>7</v>
-      </c>
-      <c r="D45" t="s">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="C45" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F45" s="1">
@@ -1926,13 +1923,13 @@
       <c r="B46" t="s">
         <v>16</v>
       </c>
-      <c r="C46" t="s">
-        <v>7</v>
-      </c>
-      <c r="D46" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="C46" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F46" s="1">
@@ -1946,13 +1943,13 @@
       <c r="B47" t="s">
         <v>17</v>
       </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="C47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="1">
@@ -1966,13 +1963,13 @@
       <c r="B48" t="s">
         <v>18</v>
       </c>
-      <c r="C48" t="s">
-        <v>7</v>
-      </c>
-      <c r="D48" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" t="s">
+      <c r="C48" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F48" s="1">
@@ -1986,13 +1983,13 @@
       <c r="B49" t="s">
         <v>19</v>
       </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" t="s">
+      <c r="C49" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F49" s="1">
@@ -2006,13 +2003,13 @@
       <c r="B50" t="s">
         <v>20</v>
       </c>
-      <c r="C50" t="s">
-        <v>7</v>
-      </c>
-      <c r="D50" t="s">
-        <v>8</v>
-      </c>
-      <c r="E50" t="s">
+      <c r="C50" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F50" s="1">
@@ -2026,13 +2023,13 @@
       <c r="B51" t="s">
         <v>21</v>
       </c>
-      <c r="C51" t="s">
-        <v>7</v>
-      </c>
-      <c r="D51" t="s">
-        <v>8</v>
-      </c>
-      <c r="E51" t="s">
+      <c r="C51" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F51" s="1">
@@ -2046,13 +2043,13 @@
       <c r="B52" t="s">
         <v>22</v>
       </c>
-      <c r="C52" t="s">
-        <v>7</v>
-      </c>
-      <c r="D52" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" t="s">
+      <c r="C52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F52" s="1">
@@ -2066,13 +2063,13 @@
       <c r="B53" t="s">
         <v>23</v>
       </c>
-      <c r="C53" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" t="s">
-        <v>8</v>
-      </c>
-      <c r="E53" t="s">
+      <c r="C53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F53" s="1">
@@ -2086,13 +2083,13 @@
       <c r="B54" t="s">
         <v>24</v>
       </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
+      <c r="C54" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F54" s="1">
@@ -2106,13 +2103,13 @@
       <c r="B55" t="s">
         <v>25</v>
       </c>
-      <c r="C55" t="s">
-        <v>7</v>
-      </c>
-      <c r="D55" t="s">
-        <v>8</v>
-      </c>
-      <c r="E55" t="s">
+      <c r="C55" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F55" s="1">
@@ -2126,13 +2123,13 @@
       <c r="B56" t="s">
         <v>26</v>
       </c>
-      <c r="C56" t="s">
-        <v>7</v>
-      </c>
-      <c r="D56" t="s">
-        <v>8</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="C56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F56" s="1">
@@ -2146,13 +2143,13 @@
       <c r="B57" t="s">
         <v>27</v>
       </c>
-      <c r="C57" t="s">
-        <v>7</v>
-      </c>
-      <c r="D57" t="s">
-        <v>8</v>
-      </c>
-      <c r="E57" t="s">
+      <c r="C57" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F57" s="1">
@@ -2166,13 +2163,13 @@
       <c r="B58" t="s">
         <v>28</v>
       </c>
-      <c r="C58" t="s">
-        <v>7</v>
-      </c>
-      <c r="D58" t="s">
-        <v>8</v>
-      </c>
-      <c r="E58" t="s">
+      <c r="C58" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F58" s="1">
@@ -2186,13 +2183,13 @@
       <c r="B59" t="s">
         <v>29</v>
       </c>
-      <c r="C59" t="s">
-        <v>7</v>
-      </c>
-      <c r="D59" t="s">
-        <v>8</v>
-      </c>
-      <c r="E59" t="s">
+      <c r="C59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F59" s="1">
@@ -2206,13 +2203,13 @@
       <c r="B60" t="s">
         <v>30</v>
       </c>
-      <c r="C60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>8</v>
-      </c>
-      <c r="E60" t="s">
+      <c r="C60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F60" s="1">
@@ -2226,13 +2223,13 @@
       <c r="B61" t="s">
         <v>31</v>
       </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="C61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F61" s="1">
@@ -2246,13 +2243,13 @@
       <c r="B62" t="s">
         <v>32</v>
       </c>
-      <c r="C62" t="s">
-        <v>7</v>
-      </c>
-      <c r="D62" t="s">
-        <v>8</v>
-      </c>
-      <c r="E62" t="s">
+      <c r="C62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F62" s="1">
@@ -2266,13 +2263,13 @@
       <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="C63" t="s">
-        <v>7</v>
-      </c>
-      <c r="D63" t="s">
-        <v>8</v>
-      </c>
-      <c r="E63" t="s">
+      <c r="C63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F63" s="1">
@@ -2286,13 +2283,13 @@
       <c r="B64" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="s">
-        <v>7</v>
-      </c>
-      <c r="D64" t="s">
-        <v>8</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F64" s="1">
@@ -2306,13 +2303,13 @@
       <c r="B65" t="s">
         <v>35</v>
       </c>
-      <c r="C65" t="s">
-        <v>7</v>
-      </c>
-      <c r="D65" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" t="s">
+      <c r="C65" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F65" s="1">
@@ -2326,13 +2323,13 @@
       <c r="B66" t="s">
         <v>36</v>
       </c>
-      <c r="C66" t="s">
-        <v>7</v>
-      </c>
-      <c r="D66" t="s">
-        <v>8</v>
-      </c>
-      <c r="E66" t="s">
+      <c r="C66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="1">
@@ -2346,13 +2343,13 @@
       <c r="B67" t="s">
         <v>37</v>
       </c>
-      <c r="C67" t="s">
-        <v>7</v>
-      </c>
-      <c r="D67" t="s">
-        <v>8</v>
-      </c>
-      <c r="E67" t="s">
+      <c r="C67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F67" s="1">
@@ -2366,13 +2363,13 @@
       <c r="B68" t="s">
         <v>38</v>
       </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
+      <c r="C68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F68" s="1">
@@ -2386,13 +2383,13 @@
       <c r="B69" t="s">
         <v>39</v>
       </c>
-      <c r="C69" t="s">
-        <v>7</v>
-      </c>
-      <c r="D69" t="s">
-        <v>8</v>
-      </c>
-      <c r="E69" t="s">
+      <c r="C69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F69" s="1">
@@ -2406,13 +2403,13 @@
       <c r="B70" t="s">
         <v>40</v>
       </c>
-      <c r="C70" t="s">
-        <v>7</v>
-      </c>
-      <c r="D70" t="s">
-        <v>8</v>
-      </c>
-      <c r="E70" t="s">
+      <c r="C70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F70" s="1">
@@ -2426,13 +2423,13 @@
       <c r="B71" t="s">
         <v>41</v>
       </c>
-      <c r="C71" t="s">
-        <v>7</v>
-      </c>
-      <c r="D71" t="s">
-        <v>8</v>
-      </c>
-      <c r="E71" t="s">
+      <c r="C71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F71" s="1">
@@ -2446,13 +2443,13 @@
       <c r="B72" t="s">
         <v>42</v>
       </c>
-      <c r="C72" t="s">
-        <v>7</v>
-      </c>
-      <c r="D72" t="s">
-        <v>8</v>
-      </c>
-      <c r="E72" t="s">
+      <c r="C72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F72" s="1">
@@ -2466,13 +2463,13 @@
       <c r="B73" t="s">
         <v>43</v>
       </c>
-      <c r="C73" t="s">
-        <v>7</v>
-      </c>
-      <c r="D73" t="s">
-        <v>8</v>
-      </c>
-      <c r="E73" t="s">
+      <c r="C73" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F73" s="1">
@@ -2484,15 +2481,15 @@
         <v>2013</v>
       </c>
       <c r="B74" t="s">
-        <v>44</v>
-      </c>
-      <c r="C74" t="s">
-        <v>7</v>
-      </c>
-      <c r="D74" t="s">
-        <v>8</v>
-      </c>
-      <c r="E74" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F74" s="1">
@@ -2504,20 +2501,18 @@
         <v>2013</v>
       </c>
       <c r="B75" t="s">
-        <v>45</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="1"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
@@ -2526,13 +2521,13 @@
       <c r="B76" t="s">
         <v>6</v>
       </c>
-      <c r="C76" t="s">
-        <v>7</v>
-      </c>
-      <c r="D76" t="s">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
+      <c r="C76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F76" s="1">
@@ -2546,13 +2541,13 @@
       <c r="B77" t="s">
         <v>10</v>
       </c>
-      <c r="C77" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F77" s="1">
@@ -2566,13 +2561,13 @@
       <c r="B78" t="s">
         <v>11</v>
       </c>
-      <c r="C78" t="s">
-        <v>7</v>
-      </c>
-      <c r="D78" t="s">
-        <v>8</v>
-      </c>
-      <c r="E78" t="s">
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F78" s="1">
@@ -2586,13 +2581,13 @@
       <c r="B79" t="s">
         <v>12</v>
       </c>
-      <c r="C79" t="s">
-        <v>7</v>
-      </c>
-      <c r="D79" t="s">
-        <v>8</v>
-      </c>
-      <c r="E79" t="s">
+      <c r="C79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F79" s="1">
@@ -2606,13 +2601,13 @@
       <c r="B80" t="s">
         <v>13</v>
       </c>
-      <c r="C80" t="s">
-        <v>7</v>
-      </c>
-      <c r="D80" t="s">
-        <v>8</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="C80" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F80" s="1">
@@ -2626,13 +2621,13 @@
       <c r="B81" t="s">
         <v>14</v>
       </c>
-      <c r="C81" t="s">
-        <v>7</v>
-      </c>
-      <c r="D81" t="s">
-        <v>8</v>
-      </c>
-      <c r="E81" t="s">
+      <c r="C81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F81" s="1">
@@ -2646,13 +2641,13 @@
       <c r="B82" t="s">
         <v>15</v>
       </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
+      <c r="C82" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F82" s="1">
@@ -2666,13 +2661,13 @@
       <c r="B83" t="s">
         <v>16</v>
       </c>
-      <c r="C83" t="s">
-        <v>7</v>
-      </c>
-      <c r="D83" t="s">
-        <v>8</v>
-      </c>
-      <c r="E83" t="s">
+      <c r="C83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F83" s="1">
@@ -2686,13 +2681,13 @@
       <c r="B84" t="s">
         <v>17</v>
       </c>
-      <c r="C84" t="s">
-        <v>7</v>
-      </c>
-      <c r="D84" t="s">
-        <v>8</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="C84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F84" s="1">
@@ -2706,13 +2701,13 @@
       <c r="B85" t="s">
         <v>18</v>
       </c>
-      <c r="C85" t="s">
-        <v>7</v>
-      </c>
-      <c r="D85" t="s">
-        <v>8</v>
-      </c>
-      <c r="E85" t="s">
+      <c r="C85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F85" s="1">
@@ -2726,13 +2721,13 @@
       <c r="B86" t="s">
         <v>19</v>
       </c>
-      <c r="C86" t="s">
-        <v>7</v>
-      </c>
-      <c r="D86" t="s">
-        <v>8</v>
-      </c>
-      <c r="E86" t="s">
+      <c r="C86" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F86" s="1">
@@ -2746,13 +2741,13 @@
       <c r="B87" t="s">
         <v>20</v>
       </c>
-      <c r="C87" t="s">
-        <v>7</v>
-      </c>
-      <c r="D87" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" t="s">
+      <c r="C87" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F87" s="1">
@@ -2766,13 +2761,13 @@
       <c r="B88" t="s">
         <v>21</v>
       </c>
-      <c r="C88" t="s">
-        <v>7</v>
-      </c>
-      <c r="D88" t="s">
-        <v>8</v>
-      </c>
-      <c r="E88" t="s">
+      <c r="C88" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F88" s="1">
@@ -2786,13 +2781,13 @@
       <c r="B89" t="s">
         <v>22</v>
       </c>
-      <c r="C89" t="s">
-        <v>7</v>
-      </c>
-      <c r="D89" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" t="s">
+      <c r="C89" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F89" s="1">
@@ -2806,13 +2801,13 @@
       <c r="B90" t="s">
         <v>23</v>
       </c>
-      <c r="C90" t="s">
-        <v>7</v>
-      </c>
-      <c r="D90" t="s">
-        <v>8</v>
-      </c>
-      <c r="E90" t="s">
+      <c r="C90" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F90" s="1">
@@ -2826,13 +2821,13 @@
       <c r="B91" t="s">
         <v>24</v>
       </c>
-      <c r="C91" t="s">
-        <v>7</v>
-      </c>
-      <c r="D91" t="s">
-        <v>8</v>
-      </c>
-      <c r="E91" t="s">
+      <c r="C91" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F91" s="1">
@@ -2846,13 +2841,13 @@
       <c r="B92" t="s">
         <v>25</v>
       </c>
-      <c r="C92" t="s">
-        <v>7</v>
-      </c>
-      <c r="D92" t="s">
-        <v>8</v>
-      </c>
-      <c r="E92" t="s">
+      <c r="C92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F92" s="1">
@@ -2866,13 +2861,13 @@
       <c r="B93" t="s">
         <v>26</v>
       </c>
-      <c r="C93" t="s">
-        <v>7</v>
-      </c>
-      <c r="D93" t="s">
-        <v>8</v>
-      </c>
-      <c r="E93" t="s">
+      <c r="C93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F93" s="1">
@@ -2886,13 +2881,13 @@
       <c r="B94" t="s">
         <v>27</v>
       </c>
-      <c r="C94" t="s">
-        <v>7</v>
-      </c>
-      <c r="D94" t="s">
-        <v>8</v>
-      </c>
-      <c r="E94" t="s">
+      <c r="C94" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F94" s="1">
@@ -2906,13 +2901,13 @@
       <c r="B95" t="s">
         <v>28</v>
       </c>
-      <c r="C95" t="s">
-        <v>7</v>
-      </c>
-      <c r="D95" t="s">
-        <v>8</v>
-      </c>
-      <c r="E95" t="s">
+      <c r="C95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F95" s="1">
@@ -2926,13 +2921,13 @@
       <c r="B96" t="s">
         <v>29</v>
       </c>
-      <c r="C96" t="s">
-        <v>7</v>
-      </c>
-      <c r="D96" t="s">
-        <v>8</v>
-      </c>
-      <c r="E96" t="s">
+      <c r="C96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F96" s="1">
@@ -2946,13 +2941,13 @@
       <c r="B97" t="s">
         <v>30</v>
       </c>
-      <c r="C97" t="s">
-        <v>7</v>
-      </c>
-      <c r="D97" t="s">
-        <v>8</v>
-      </c>
-      <c r="E97" t="s">
+      <c r="C97" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E97" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F97" s="1">
@@ -2966,13 +2961,13 @@
       <c r="B98" t="s">
         <v>31</v>
       </c>
-      <c r="C98" t="s">
-        <v>7</v>
-      </c>
-      <c r="D98" t="s">
-        <v>8</v>
-      </c>
-      <c r="E98" t="s">
+      <c r="C98" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F98" s="1">
@@ -2986,13 +2981,13 @@
       <c r="B99" t="s">
         <v>32</v>
       </c>
-      <c r="C99" t="s">
-        <v>7</v>
-      </c>
-      <c r="D99" t="s">
-        <v>8</v>
-      </c>
-      <c r="E99" t="s">
+      <c r="C99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F99" s="1">
@@ -3006,13 +3001,13 @@
       <c r="B100" t="s">
         <v>33</v>
       </c>
-      <c r="C100" t="s">
-        <v>7</v>
-      </c>
-      <c r="D100" t="s">
-        <v>8</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="C100" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F100" s="1">
@@ -3026,13 +3021,13 @@
       <c r="B101" t="s">
         <v>34</v>
       </c>
-      <c r="C101" t="s">
-        <v>7</v>
-      </c>
-      <c r="D101" t="s">
-        <v>8</v>
-      </c>
-      <c r="E101" t="s">
+      <c r="C101" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F101" s="1">
@@ -3046,13 +3041,13 @@
       <c r="B102" t="s">
         <v>35</v>
       </c>
-      <c r="C102" t="s">
-        <v>7</v>
-      </c>
-      <c r="D102" t="s">
-        <v>8</v>
-      </c>
-      <c r="E102" t="s">
+      <c r="C102" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F102" s="1">
@@ -3066,13 +3061,13 @@
       <c r="B103" t="s">
         <v>36</v>
       </c>
-      <c r="C103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D103" t="s">
-        <v>8</v>
-      </c>
-      <c r="E103" t="s">
+      <c r="C103" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F103" s="1">
@@ -3086,13 +3081,13 @@
       <c r="B104" t="s">
         <v>37</v>
       </c>
-      <c r="C104" t="s">
-        <v>7</v>
-      </c>
-      <c r="D104" t="s">
-        <v>8</v>
-      </c>
-      <c r="E104" t="s">
+      <c r="C104" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F104" s="1">
@@ -3106,13 +3101,13 @@
       <c r="B105" t="s">
         <v>38</v>
       </c>
-      <c r="C105" t="s">
-        <v>7</v>
-      </c>
-      <c r="D105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E105" t="s">
+      <c r="C105" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F105" s="1">
@@ -3126,13 +3121,13 @@
       <c r="B106" t="s">
         <v>39</v>
       </c>
-      <c r="C106" t="s">
-        <v>7</v>
-      </c>
-      <c r="D106" t="s">
-        <v>8</v>
-      </c>
-      <c r="E106" t="s">
+      <c r="C106" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F106" s="1">
@@ -3146,13 +3141,13 @@
       <c r="B107" t="s">
         <v>40</v>
       </c>
-      <c r="C107" t="s">
-        <v>7</v>
-      </c>
-      <c r="D107" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" t="s">
+      <c r="C107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F107" s="1">
@@ -3166,13 +3161,13 @@
       <c r="B108" t="s">
         <v>41</v>
       </c>
-      <c r="C108" t="s">
-        <v>7</v>
-      </c>
-      <c r="D108" t="s">
-        <v>8</v>
-      </c>
-      <c r="E108" t="s">
+      <c r="C108" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F108" s="1">
@@ -3186,13 +3181,13 @@
       <c r="B109" t="s">
         <v>42</v>
       </c>
-      <c r="C109" t="s">
-        <v>7</v>
-      </c>
-      <c r="D109" t="s">
-        <v>8</v>
-      </c>
-      <c r="E109" t="s">
+      <c r="C109" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E109" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F109" s="1">
@@ -3206,13 +3201,13 @@
       <c r="B110" t="s">
         <v>43</v>
       </c>
-      <c r="C110" t="s">
-        <v>7</v>
-      </c>
-      <c r="D110" t="s">
-        <v>8</v>
-      </c>
-      <c r="E110" t="s">
+      <c r="C110" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F110" s="1">
@@ -3224,15 +3219,15 @@
         <v>2014</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
-      </c>
-      <c r="C111" t="s">
-        <v>7</v>
-      </c>
-      <c r="D111" t="s">
-        <v>8</v>
-      </c>
-      <c r="E111" t="s">
+        <v>45</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F111" s="1">
@@ -3244,20 +3239,18 @@
         <v>2014</v>
       </c>
       <c r="B112" t="s">
-        <v>45</v>
-      </c>
-      <c r="C112" t="s">
-        <v>7</v>
-      </c>
-      <c r="D112" t="s">
-        <v>8</v>
-      </c>
-      <c r="E112" t="s">
-        <v>9</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F112" s="1"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A113">
@@ -3266,13 +3259,13 @@
       <c r="B113" t="s">
         <v>6</v>
       </c>
-      <c r="C113" t="s">
-        <v>7</v>
-      </c>
-      <c r="D113" t="s">
-        <v>8</v>
-      </c>
-      <c r="E113" t="s">
+      <c r="C113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F113" s="1">
@@ -3286,13 +3279,13 @@
       <c r="B114" t="s">
         <v>10</v>
       </c>
-      <c r="C114" t="s">
-        <v>7</v>
-      </c>
-      <c r="D114" t="s">
-        <v>8</v>
-      </c>
-      <c r="E114" t="s">
+      <c r="C114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F114" s="1">
@@ -3306,13 +3299,13 @@
       <c r="B115" t="s">
         <v>11</v>
       </c>
-      <c r="C115" t="s">
-        <v>7</v>
-      </c>
-      <c r="D115" t="s">
-        <v>8</v>
-      </c>
-      <c r="E115" t="s">
+      <c r="C115" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F115" s="1">
@@ -3326,13 +3319,13 @@
       <c r="B116" t="s">
         <v>12</v>
       </c>
-      <c r="C116" t="s">
-        <v>7</v>
-      </c>
-      <c r="D116" t="s">
-        <v>8</v>
-      </c>
-      <c r="E116" t="s">
+      <c r="C116" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F116" s="1">
@@ -3346,13 +3339,13 @@
       <c r="B117" t="s">
         <v>13</v>
       </c>
-      <c r="C117" t="s">
-        <v>7</v>
-      </c>
-      <c r="D117" t="s">
-        <v>8</v>
-      </c>
-      <c r="E117" t="s">
+      <c r="C117" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F117" s="1">
@@ -3366,13 +3359,13 @@
       <c r="B118" t="s">
         <v>14</v>
       </c>
-      <c r="C118" t="s">
-        <v>7</v>
-      </c>
-      <c r="D118" t="s">
-        <v>8</v>
-      </c>
-      <c r="E118" t="s">
+      <c r="C118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E118" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F118" s="1">
@@ -3386,13 +3379,13 @@
       <c r="B119" t="s">
         <v>15</v>
       </c>
-      <c r="C119" t="s">
-        <v>7</v>
-      </c>
-      <c r="D119" t="s">
-        <v>8</v>
-      </c>
-      <c r="E119" t="s">
+      <c r="C119" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F119" s="1">
@@ -3406,13 +3399,13 @@
       <c r="B120" t="s">
         <v>16</v>
       </c>
-      <c r="C120" t="s">
-        <v>7</v>
-      </c>
-      <c r="D120" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" t="s">
+      <c r="C120" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E120" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F120" s="1">
@@ -3426,13 +3419,13 @@
       <c r="B121" t="s">
         <v>17</v>
       </c>
-      <c r="C121" t="s">
-        <v>7</v>
-      </c>
-      <c r="D121" t="s">
-        <v>8</v>
-      </c>
-      <c r="E121" t="s">
+      <c r="C121" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F121" s="1">
@@ -3446,13 +3439,13 @@
       <c r="B122" t="s">
         <v>18</v>
       </c>
-      <c r="C122" t="s">
-        <v>7</v>
-      </c>
-      <c r="D122" t="s">
-        <v>8</v>
-      </c>
-      <c r="E122" t="s">
+      <c r="C122" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F122" s="1">
@@ -3466,13 +3459,13 @@
       <c r="B123" t="s">
         <v>19</v>
       </c>
-      <c r="C123" t="s">
-        <v>7</v>
-      </c>
-      <c r="D123" t="s">
-        <v>8</v>
-      </c>
-      <c r="E123" t="s">
+      <c r="C123" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F123" s="1">
@@ -3486,13 +3479,13 @@
       <c r="B124" t="s">
         <v>20</v>
       </c>
-      <c r="C124" t="s">
-        <v>7</v>
-      </c>
-      <c r="D124" t="s">
-        <v>8</v>
-      </c>
-      <c r="E124" t="s">
+      <c r="C124" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F124" s="1">
@@ -3506,13 +3499,13 @@
       <c r="B125" t="s">
         <v>21</v>
       </c>
-      <c r="C125" t="s">
-        <v>7</v>
-      </c>
-      <c r="D125" t="s">
-        <v>8</v>
-      </c>
-      <c r="E125" t="s">
+      <c r="C125" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F125" s="1">
@@ -3526,13 +3519,13 @@
       <c r="B126" t="s">
         <v>22</v>
       </c>
-      <c r="C126" t="s">
-        <v>7</v>
-      </c>
-      <c r="D126" t="s">
-        <v>8</v>
-      </c>
-      <c r="E126" t="s">
+      <c r="C126" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E126" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F126" s="1">
@@ -3546,13 +3539,13 @@
       <c r="B127" t="s">
         <v>23</v>
       </c>
-      <c r="C127" t="s">
-        <v>7</v>
-      </c>
-      <c r="D127" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" t="s">
+      <c r="C127" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E127" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F127" s="1">
@@ -3566,13 +3559,13 @@
       <c r="B128" t="s">
         <v>24</v>
       </c>
-      <c r="C128" t="s">
-        <v>7</v>
-      </c>
-      <c r="D128" t="s">
-        <v>8</v>
-      </c>
-      <c r="E128" t="s">
+      <c r="C128" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D128" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E128" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F128" s="1">
@@ -3586,13 +3579,13 @@
       <c r="B129" t="s">
         <v>25</v>
       </c>
-      <c r="C129" t="s">
-        <v>7</v>
-      </c>
-      <c r="D129" t="s">
-        <v>8</v>
-      </c>
-      <c r="E129" t="s">
+      <c r="C129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F129" s="1">
@@ -3606,13 +3599,13 @@
       <c r="B130" t="s">
         <v>26</v>
       </c>
-      <c r="C130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="C130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F130" s="1">
@@ -3626,13 +3619,13 @@
       <c r="B131" t="s">
         <v>27</v>
       </c>
-      <c r="C131" t="s">
-        <v>7</v>
-      </c>
-      <c r="D131" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" t="s">
+      <c r="C131" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F131" s="1">
@@ -3646,13 +3639,13 @@
       <c r="B132" t="s">
         <v>28</v>
       </c>
-      <c r="C132" t="s">
-        <v>7</v>
-      </c>
-      <c r="D132" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" t="s">
+      <c r="C132" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F132" s="1">
@@ -3666,13 +3659,13 @@
       <c r="B133" t="s">
         <v>29</v>
       </c>
-      <c r="C133" t="s">
-        <v>7</v>
-      </c>
-      <c r="D133" t="s">
-        <v>8</v>
-      </c>
-      <c r="E133" t="s">
+      <c r="C133" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E133" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F133" s="1">
@@ -3686,13 +3679,13 @@
       <c r="B134" t="s">
         <v>30</v>
       </c>
-      <c r="C134" t="s">
-        <v>7</v>
-      </c>
-      <c r="D134" t="s">
-        <v>8</v>
-      </c>
-      <c r="E134" t="s">
+      <c r="C134" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E134" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F134" s="1">
@@ -3706,13 +3699,13 @@
       <c r="B135" t="s">
         <v>31</v>
       </c>
-      <c r="C135" t="s">
-        <v>7</v>
-      </c>
-      <c r="D135" t="s">
-        <v>8</v>
-      </c>
-      <c r="E135" t="s">
+      <c r="C135" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F135" s="1">
@@ -3726,13 +3719,13 @@
       <c r="B136" t="s">
         <v>32</v>
       </c>
-      <c r="C136" t="s">
-        <v>7</v>
-      </c>
-      <c r="D136" t="s">
-        <v>8</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="C136" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F136" s="1">
@@ -3746,13 +3739,13 @@
       <c r="B137" t="s">
         <v>33</v>
       </c>
-      <c r="C137" t="s">
-        <v>7</v>
-      </c>
-      <c r="D137" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="C137" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E137" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F137" s="1">
@@ -3766,13 +3759,13 @@
       <c r="B138" t="s">
         <v>34</v>
       </c>
-      <c r="C138" t="s">
-        <v>7</v>
-      </c>
-      <c r="D138" t="s">
-        <v>8</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="C138" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F138" s="1">
@@ -3786,13 +3779,13 @@
       <c r="B139" t="s">
         <v>35</v>
       </c>
-      <c r="C139" t="s">
-        <v>7</v>
-      </c>
-      <c r="D139" t="s">
-        <v>8</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="C139" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F139" s="1">
@@ -3806,13 +3799,13 @@
       <c r="B140" t="s">
         <v>36</v>
       </c>
-      <c r="C140" t="s">
-        <v>7</v>
-      </c>
-      <c r="D140" t="s">
-        <v>8</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="C140" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F140" s="1">
@@ -3826,13 +3819,13 @@
       <c r="B141" t="s">
         <v>37</v>
       </c>
-      <c r="C141" t="s">
-        <v>7</v>
-      </c>
-      <c r="D141" t="s">
-        <v>8</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="C141" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F141" s="1">
@@ -3846,13 +3839,13 @@
       <c r="B142" t="s">
         <v>38</v>
       </c>
-      <c r="C142" t="s">
-        <v>7</v>
-      </c>
-      <c r="D142" t="s">
-        <v>8</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="C142" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F142" s="1">
@@ -3866,13 +3859,13 @@
       <c r="B143" t="s">
         <v>39</v>
       </c>
-      <c r="C143" t="s">
-        <v>7</v>
-      </c>
-      <c r="D143" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="C143" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E143" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F143" s="1">
@@ -3886,13 +3879,13 @@
       <c r="B144" t="s">
         <v>40</v>
       </c>
-      <c r="C144" t="s">
-        <v>7</v>
-      </c>
-      <c r="D144" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="C144" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E144" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F144" s="1">
@@ -3906,13 +3899,13 @@
       <c r="B145" t="s">
         <v>41</v>
       </c>
-      <c r="C145" t="s">
-        <v>7</v>
-      </c>
-      <c r="D145" t="s">
-        <v>8</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="C145" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E145" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F145" s="1">
@@ -3926,13 +3919,13 @@
       <c r="B146" t="s">
         <v>42</v>
       </c>
-      <c r="C146" t="s">
-        <v>7</v>
-      </c>
-      <c r="D146" t="s">
-        <v>8</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="C146" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E146" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F146" s="1">
@@ -3946,13 +3939,13 @@
       <c r="B147" t="s">
         <v>43</v>
       </c>
-      <c r="C147" t="s">
-        <v>7</v>
-      </c>
-      <c r="D147" t="s">
-        <v>8</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="C147" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E147" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F147" s="1">
@@ -3964,15 +3957,15 @@
         <v>2015</v>
       </c>
       <c r="B148" t="s">
-        <v>44</v>
-      </c>
-      <c r="C148" t="s">
-        <v>7</v>
-      </c>
-      <c r="D148" t="s">
-        <v>8</v>
-      </c>
-      <c r="E148" t="s">
+        <v>45</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E148" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F148" s="1">
@@ -3984,15 +3977,15 @@
         <v>2015</v>
       </c>
       <c r="B149" t="s">
-        <v>45</v>
-      </c>
-      <c r="C149" t="s">
-        <v>7</v>
-      </c>
-      <c r="D149" t="s">
-        <v>8</v>
-      </c>
-      <c r="E149" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E149" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F149" s="1">
@@ -4006,13 +3999,13 @@
       <c r="B150" t="s">
         <v>6</v>
       </c>
-      <c r="C150" t="s">
-        <v>7</v>
-      </c>
-      <c r="D150" t="s">
-        <v>8</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="C150" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E150" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F150" s="1">
@@ -4026,13 +4019,13 @@
       <c r="B151" t="s">
         <v>10</v>
       </c>
-      <c r="C151" t="s">
-        <v>7</v>
-      </c>
-      <c r="D151" t="s">
-        <v>8</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="C151" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F151" s="1">
@@ -4046,13 +4039,13 @@
       <c r="B152" t="s">
         <v>11</v>
       </c>
-      <c r="C152" t="s">
-        <v>7</v>
-      </c>
-      <c r="D152" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="C152" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F152" s="1">
@@ -4066,13 +4059,13 @@
       <c r="B153" t="s">
         <v>12</v>
       </c>
-      <c r="C153" t="s">
-        <v>7</v>
-      </c>
-      <c r="D153" t="s">
-        <v>8</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="C153" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F153" s="1">
@@ -4086,13 +4079,13 @@
       <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154" t="s">
-        <v>7</v>
-      </c>
-      <c r="D154" t="s">
-        <v>8</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="C154" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F154" s="1">
@@ -4106,13 +4099,13 @@
       <c r="B155" t="s">
         <v>14</v>
       </c>
-      <c r="C155" t="s">
-        <v>7</v>
-      </c>
-      <c r="D155" t="s">
-        <v>8</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="C155" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F155" s="1">
@@ -4126,13 +4119,13 @@
       <c r="B156" t="s">
         <v>15</v>
       </c>
-      <c r="C156" t="s">
-        <v>7</v>
-      </c>
-      <c r="D156" t="s">
-        <v>8</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="C156" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F156" s="1">
@@ -4146,13 +4139,13 @@
       <c r="B157" t="s">
         <v>16</v>
       </c>
-      <c r="C157" t="s">
-        <v>7</v>
-      </c>
-      <c r="D157" t="s">
-        <v>8</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="C157" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F157" s="1">
@@ -4166,13 +4159,13 @@
       <c r="B158" t="s">
         <v>17</v>
       </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" t="s">
-        <v>8</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="C158" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F158" s="1">
@@ -4186,13 +4179,13 @@
       <c r="B159" t="s">
         <v>18</v>
       </c>
-      <c r="C159" t="s">
-        <v>7</v>
-      </c>
-      <c r="D159" t="s">
-        <v>8</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="C159" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F159" s="1">
@@ -4206,13 +4199,13 @@
       <c r="B160" t="s">
         <v>19</v>
       </c>
-      <c r="C160" t="s">
-        <v>7</v>
-      </c>
-      <c r="D160" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="C160" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F160" s="1">
@@ -4226,13 +4219,13 @@
       <c r="B161" t="s">
         <v>20</v>
       </c>
-      <c r="C161" t="s">
-        <v>7</v>
-      </c>
-      <c r="D161" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="C161" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E161" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F161" s="1">
@@ -4246,13 +4239,13 @@
       <c r="B162" t="s">
         <v>21</v>
       </c>
-      <c r="C162" t="s">
-        <v>7</v>
-      </c>
-      <c r="D162" t="s">
-        <v>8</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="C162" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F162" s="1">
@@ -4266,13 +4259,13 @@
       <c r="B163" t="s">
         <v>22</v>
       </c>
-      <c r="C163" t="s">
-        <v>7</v>
-      </c>
-      <c r="D163" t="s">
-        <v>8</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="C163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F163" s="1">
@@ -4286,13 +4279,13 @@
       <c r="B164" t="s">
         <v>23</v>
       </c>
-      <c r="C164" t="s">
-        <v>7</v>
-      </c>
-      <c r="D164" t="s">
-        <v>8</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="C164" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F164" s="1">
@@ -4306,13 +4299,13 @@
       <c r="B165" t="s">
         <v>24</v>
       </c>
-      <c r="C165" t="s">
-        <v>7</v>
-      </c>
-      <c r="D165" t="s">
-        <v>8</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="C165" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D165" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F165" s="1">
@@ -4326,13 +4319,13 @@
       <c r="B166" t="s">
         <v>25</v>
       </c>
-      <c r="C166" t="s">
-        <v>7</v>
-      </c>
-      <c r="D166" t="s">
-        <v>8</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="C166" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F166" s="1">
@@ -4346,13 +4339,13 @@
       <c r="B167" t="s">
         <v>26</v>
       </c>
-      <c r="C167" t="s">
-        <v>7</v>
-      </c>
-      <c r="D167" t="s">
-        <v>8</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="C167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F167" s="1">
@@ -4366,13 +4359,13 @@
       <c r="B168" t="s">
         <v>27</v>
       </c>
-      <c r="C168" t="s">
-        <v>7</v>
-      </c>
-      <c r="D168" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="C168" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F168" s="1">
@@ -4386,13 +4379,13 @@
       <c r="B169" t="s">
         <v>28</v>
       </c>
-      <c r="C169" t="s">
-        <v>7</v>
-      </c>
-      <c r="D169" t="s">
-        <v>8</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="C169" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F169" s="1">
@@ -4406,13 +4399,13 @@
       <c r="B170" t="s">
         <v>29</v>
       </c>
-      <c r="C170" t="s">
-        <v>7</v>
-      </c>
-      <c r="D170" t="s">
-        <v>8</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="C170" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D170" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F170" s="1">
@@ -4426,13 +4419,13 @@
       <c r="B171" t="s">
         <v>30</v>
       </c>
-      <c r="C171" t="s">
-        <v>7</v>
-      </c>
-      <c r="D171" t="s">
-        <v>8</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="C171" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D171" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F171" s="1">
@@ -4446,13 +4439,13 @@
       <c r="B172" t="s">
         <v>31</v>
       </c>
-      <c r="C172" t="s">
-        <v>7</v>
-      </c>
-      <c r="D172" t="s">
-        <v>8</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="C172" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E172" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F172" s="1">
@@ -4466,13 +4459,13 @@
       <c r="B173" t="s">
         <v>32</v>
       </c>
-      <c r="C173" t="s">
-        <v>7</v>
-      </c>
-      <c r="D173" t="s">
-        <v>8</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="C173" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F173" s="1">
@@ -4486,13 +4479,13 @@
       <c r="B174" t="s">
         <v>33</v>
       </c>
-      <c r="C174" t="s">
-        <v>7</v>
-      </c>
-      <c r="D174" t="s">
-        <v>8</v>
-      </c>
-      <c r="E174" t="s">
+      <c r="C174" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F174" s="1">
@@ -4506,13 +4499,13 @@
       <c r="B175" t="s">
         <v>34</v>
       </c>
-      <c r="C175" t="s">
-        <v>7</v>
-      </c>
-      <c r="D175" t="s">
-        <v>8</v>
-      </c>
-      <c r="E175" t="s">
+      <c r="C175" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F175" s="1">
@@ -4526,13 +4519,13 @@
       <c r="B176" t="s">
         <v>35</v>
       </c>
-      <c r="C176" t="s">
-        <v>7</v>
-      </c>
-      <c r="D176" t="s">
-        <v>8</v>
-      </c>
-      <c r="E176" t="s">
+      <c r="C176" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E176" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F176" s="1">
@@ -4546,13 +4539,13 @@
       <c r="B177" t="s">
         <v>36</v>
       </c>
-      <c r="C177" t="s">
-        <v>7</v>
-      </c>
-      <c r="D177" t="s">
-        <v>8</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C177" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D177" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E177" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F177" s="1">
@@ -4566,13 +4559,13 @@
       <c r="B178" t="s">
         <v>37</v>
       </c>
-      <c r="C178" t="s">
-        <v>7</v>
-      </c>
-      <c r="D178" t="s">
-        <v>8</v>
-      </c>
-      <c r="E178" t="s">
+      <c r="C178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D178" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F178" s="1">
@@ -4586,13 +4579,13 @@
       <c r="B179" t="s">
         <v>38</v>
       </c>
-      <c r="C179" t="s">
-        <v>7</v>
-      </c>
-      <c r="D179" t="s">
-        <v>8</v>
-      </c>
-      <c r="E179" t="s">
+      <c r="C179" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F179" s="1">
@@ -4606,13 +4599,13 @@
       <c r="B180" t="s">
         <v>39</v>
       </c>
-      <c r="C180" t="s">
-        <v>7</v>
-      </c>
-      <c r="D180" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" t="s">
+      <c r="C180" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F180" s="1">
@@ -4626,13 +4619,13 @@
       <c r="B181" t="s">
         <v>40</v>
       </c>
-      <c r="C181" t="s">
-        <v>7</v>
-      </c>
-      <c r="D181" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="C181" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F181" s="1">
@@ -4646,13 +4639,13 @@
       <c r="B182" t="s">
         <v>41</v>
       </c>
-      <c r="C182" t="s">
-        <v>7</v>
-      </c>
-      <c r="D182" t="s">
-        <v>8</v>
-      </c>
-      <c r="E182" t="s">
+      <c r="C182" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D182" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F182" s="1">
@@ -4666,13 +4659,13 @@
       <c r="B183" t="s">
         <v>42</v>
       </c>
-      <c r="C183" t="s">
-        <v>7</v>
-      </c>
-      <c r="D183" t="s">
-        <v>8</v>
-      </c>
-      <c r="E183" t="s">
+      <c r="C183" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D183" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F183" s="1">
@@ -4686,13 +4679,13 @@
       <c r="B184" t="s">
         <v>43</v>
       </c>
-      <c r="C184" t="s">
-        <v>7</v>
-      </c>
-      <c r="D184" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" t="s">
+      <c r="C184" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F184" s="1">
@@ -4704,15 +4697,15 @@
         <v>2016</v>
       </c>
       <c r="B185" t="s">
-        <v>44</v>
-      </c>
-      <c r="C185" t="s">
-        <v>7</v>
-      </c>
-      <c r="D185" t="s">
-        <v>8</v>
-      </c>
-      <c r="E185" t="s">
+        <v>45</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F185" s="1">
@@ -4724,15 +4717,15 @@
         <v>2016</v>
       </c>
       <c r="B186" t="s">
-        <v>45</v>
-      </c>
-      <c r="C186" t="s">
-        <v>7</v>
-      </c>
-      <c r="D186" t="s">
-        <v>8</v>
-      </c>
-      <c r="E186" t="s">
+        <v>44</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F186" s="1">
@@ -4746,13 +4739,13 @@
       <c r="B187" t="s">
         <v>6</v>
       </c>
-      <c r="C187" t="s">
-        <v>7</v>
-      </c>
-      <c r="D187" t="s">
-        <v>8</v>
-      </c>
-      <c r="E187" t="s">
+      <c r="C187" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E187" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F187" s="1">
@@ -4766,13 +4759,13 @@
       <c r="B188" t="s">
         <v>10</v>
       </c>
-      <c r="C188" t="s">
-        <v>7</v>
-      </c>
-      <c r="D188" t="s">
-        <v>8</v>
-      </c>
-      <c r="E188" t="s">
+      <c r="C188" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E188" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F188" s="1">
@@ -4786,13 +4779,13 @@
       <c r="B189" t="s">
         <v>11</v>
       </c>
-      <c r="C189" t="s">
-        <v>7</v>
-      </c>
-      <c r="D189" t="s">
-        <v>8</v>
-      </c>
-      <c r="E189" t="s">
+      <c r="C189" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F189" s="1">
@@ -4806,13 +4799,13 @@
       <c r="B190" t="s">
         <v>12</v>
       </c>
-      <c r="C190" t="s">
-        <v>7</v>
-      </c>
-      <c r="D190" t="s">
-        <v>8</v>
-      </c>
-      <c r="E190" t="s">
+      <c r="C190" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F190" s="1">
@@ -4826,13 +4819,13 @@
       <c r="B191" t="s">
         <v>13</v>
       </c>
-      <c r="C191" t="s">
-        <v>7</v>
-      </c>
-      <c r="D191" t="s">
-        <v>8</v>
-      </c>
-      <c r="E191" t="s">
+      <c r="C191" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F191" s="1">
@@ -4846,13 +4839,13 @@
       <c r="B192" t="s">
         <v>14</v>
       </c>
-      <c r="C192" t="s">
-        <v>7</v>
-      </c>
-      <c r="D192" t="s">
-        <v>8</v>
-      </c>
-      <c r="E192" t="s">
+      <c r="C192" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F192" s="1">
@@ -4866,13 +4859,13 @@
       <c r="B193" t="s">
         <v>15</v>
       </c>
-      <c r="C193" t="s">
-        <v>7</v>
-      </c>
-      <c r="D193" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" t="s">
+      <c r="C193" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F193" s="1">
@@ -4886,13 +4879,13 @@
       <c r="B194" t="s">
         <v>16</v>
       </c>
-      <c r="C194" t="s">
-        <v>7</v>
-      </c>
-      <c r="D194" t="s">
-        <v>8</v>
-      </c>
-      <c r="E194" t="s">
+      <c r="C194" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D194" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F194" s="1">
@@ -4906,13 +4899,13 @@
       <c r="B195" t="s">
         <v>17</v>
       </c>
-      <c r="C195" t="s">
-        <v>7</v>
-      </c>
-      <c r="D195" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" t="s">
+      <c r="C195" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D195" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F195" s="1">
@@ -4926,13 +4919,13 @@
       <c r="B196" t="s">
         <v>18</v>
       </c>
-      <c r="C196" t="s">
-        <v>7</v>
-      </c>
-      <c r="D196" t="s">
-        <v>8</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="C196" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F196" s="1">
@@ -4946,13 +4939,13 @@
       <c r="B197" t="s">
         <v>19</v>
       </c>
-      <c r="C197" t="s">
-        <v>7</v>
-      </c>
-      <c r="D197" t="s">
-        <v>8</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="C197" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D197" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F197" s="1">
@@ -4966,13 +4959,13 @@
       <c r="B198" t="s">
         <v>20</v>
       </c>
-      <c r="C198" t="s">
-        <v>7</v>
-      </c>
-      <c r="D198" t="s">
-        <v>8</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="C198" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D198" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F198" s="1">
@@ -4986,13 +4979,13 @@
       <c r="B199" t="s">
         <v>21</v>
       </c>
-      <c r="C199" t="s">
-        <v>7</v>
-      </c>
-      <c r="D199" t="s">
-        <v>8</v>
-      </c>
-      <c r="E199" t="s">
+      <c r="C199" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E199" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F199" s="1">
@@ -5006,13 +4999,13 @@
       <c r="B200" t="s">
         <v>22</v>
       </c>
-      <c r="C200" t="s">
-        <v>7</v>
-      </c>
-      <c r="D200" t="s">
-        <v>8</v>
-      </c>
-      <c r="E200" t="s">
+      <c r="C200" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F200" s="1">
@@ -5026,13 +5019,13 @@
       <c r="B201" t="s">
         <v>23</v>
       </c>
-      <c r="C201" t="s">
-        <v>7</v>
-      </c>
-      <c r="D201" t="s">
-        <v>8</v>
-      </c>
-      <c r="E201" t="s">
+      <c r="C201" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F201" s="1">
@@ -5046,13 +5039,13 @@
       <c r="B202" t="s">
         <v>24</v>
       </c>
-      <c r="C202" t="s">
-        <v>7</v>
-      </c>
-      <c r="D202" t="s">
-        <v>8</v>
-      </c>
-      <c r="E202" t="s">
+      <c r="C202" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F202" s="1">
@@ -5066,13 +5059,13 @@
       <c r="B203" t="s">
         <v>25</v>
       </c>
-      <c r="C203" t="s">
-        <v>7</v>
-      </c>
-      <c r="D203" t="s">
-        <v>8</v>
-      </c>
-      <c r="E203" t="s">
+      <c r="C203" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E203" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F203" s="1">
@@ -5086,13 +5079,13 @@
       <c r="B204" t="s">
         <v>26</v>
       </c>
-      <c r="C204" t="s">
-        <v>7</v>
-      </c>
-      <c r="D204" t="s">
-        <v>8</v>
-      </c>
-      <c r="E204" t="s">
+      <c r="C204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F204" s="1">
@@ -5106,13 +5099,13 @@
       <c r="B205" t="s">
         <v>27</v>
       </c>
-      <c r="C205" t="s">
-        <v>7</v>
-      </c>
-      <c r="D205" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" t="s">
+      <c r="C205" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F205" s="1">
@@ -5126,13 +5119,13 @@
       <c r="B206" t="s">
         <v>28</v>
       </c>
-      <c r="C206" t="s">
-        <v>7</v>
-      </c>
-      <c r="D206" t="s">
-        <v>8</v>
-      </c>
-      <c r="E206" t="s">
+      <c r="C206" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F206" s="1">
@@ -5146,13 +5139,13 @@
       <c r="B207" t="s">
         <v>29</v>
       </c>
-      <c r="C207" t="s">
-        <v>7</v>
-      </c>
-      <c r="D207" t="s">
-        <v>8</v>
-      </c>
-      <c r="E207" t="s">
+      <c r="C207" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F207" s="1">
@@ -5166,13 +5159,13 @@
       <c r="B208" t="s">
         <v>30</v>
       </c>
-      <c r="C208" t="s">
-        <v>7</v>
-      </c>
-      <c r="D208" t="s">
-        <v>8</v>
-      </c>
-      <c r="E208" t="s">
+      <c r="C208" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F208" s="1">
@@ -5186,13 +5179,13 @@
       <c r="B209" t="s">
         <v>31</v>
       </c>
-      <c r="C209" t="s">
-        <v>7</v>
-      </c>
-      <c r="D209" t="s">
-        <v>8</v>
-      </c>
-      <c r="E209" t="s">
+      <c r="C209" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D209" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F209" s="1">
@@ -5206,13 +5199,13 @@
       <c r="B210" t="s">
         <v>32</v>
       </c>
-      <c r="C210" t="s">
-        <v>7</v>
-      </c>
-      <c r="D210" t="s">
-        <v>8</v>
-      </c>
-      <c r="E210" t="s">
+      <c r="C210" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F210" s="1">
@@ -5226,13 +5219,13 @@
       <c r="B211" t="s">
         <v>33</v>
       </c>
-      <c r="C211" t="s">
-        <v>7</v>
-      </c>
-      <c r="D211" t="s">
-        <v>8</v>
-      </c>
-      <c r="E211" t="s">
+      <c r="C211" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F211" s="1">
@@ -5246,13 +5239,13 @@
       <c r="B212" t="s">
         <v>34</v>
       </c>
-      <c r="C212" t="s">
-        <v>7</v>
-      </c>
-      <c r="D212" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" t="s">
+      <c r="C212" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F212" s="1">
@@ -5266,13 +5259,13 @@
       <c r="B213" t="s">
         <v>35</v>
       </c>
-      <c r="C213" t="s">
-        <v>7</v>
-      </c>
-      <c r="D213" t="s">
-        <v>8</v>
-      </c>
-      <c r="E213" t="s">
+      <c r="C213" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F213" s="1">
@@ -5286,13 +5279,13 @@
       <c r="B214" t="s">
         <v>36</v>
       </c>
-      <c r="C214" t="s">
-        <v>7</v>
-      </c>
-      <c r="D214" t="s">
-        <v>8</v>
-      </c>
-      <c r="E214" t="s">
+      <c r="C214" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F214" s="1">
@@ -5306,13 +5299,13 @@
       <c r="B215" t="s">
         <v>37</v>
       </c>
-      <c r="C215" t="s">
-        <v>7</v>
-      </c>
-      <c r="D215" t="s">
-        <v>8</v>
-      </c>
-      <c r="E215" t="s">
+      <c r="C215" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F215" s="1">
@@ -5326,13 +5319,13 @@
       <c r="B216" t="s">
         <v>38</v>
       </c>
-      <c r="C216" t="s">
-        <v>7</v>
-      </c>
-      <c r="D216" t="s">
-        <v>8</v>
-      </c>
-      <c r="E216" t="s">
+      <c r="C216" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F216" s="1">
@@ -5346,13 +5339,13 @@
       <c r="B217" t="s">
         <v>39</v>
       </c>
-      <c r="C217" t="s">
-        <v>7</v>
-      </c>
-      <c r="D217" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" t="s">
+      <c r="C217" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F217" s="1">
@@ -5366,13 +5359,13 @@
       <c r="B218" t="s">
         <v>40</v>
       </c>
-      <c r="C218" t="s">
-        <v>7</v>
-      </c>
-      <c r="D218" t="s">
-        <v>8</v>
-      </c>
-      <c r="E218" t="s">
+      <c r="C218" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D218" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F218" s="1">
@@ -5386,13 +5379,13 @@
       <c r="B219" t="s">
         <v>41</v>
       </c>
-      <c r="C219" t="s">
-        <v>7</v>
-      </c>
-      <c r="D219" t="s">
-        <v>8</v>
-      </c>
-      <c r="E219" t="s">
+      <c r="C219" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F219" s="1">
@@ -5406,13 +5399,13 @@
       <c r="B220" t="s">
         <v>42</v>
       </c>
-      <c r="C220" t="s">
-        <v>7</v>
-      </c>
-      <c r="D220" t="s">
-        <v>8</v>
-      </c>
-      <c r="E220" t="s">
+      <c r="C220" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F220" s="1">
@@ -5426,13 +5419,13 @@
       <c r="B221" t="s">
         <v>43</v>
       </c>
-      <c r="C221" t="s">
-        <v>7</v>
-      </c>
-      <c r="D221" t="s">
-        <v>8</v>
-      </c>
-      <c r="E221" t="s">
+      <c r="C221" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F221" s="1">
@@ -5444,15 +5437,15 @@
         <v>2017</v>
       </c>
       <c r="B222" t="s">
-        <v>44</v>
-      </c>
-      <c r="C222" t="s">
-        <v>7</v>
-      </c>
-      <c r="D222" t="s">
-        <v>8</v>
-      </c>
-      <c r="E222" t="s">
+        <v>45</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F222" s="1">
@@ -5464,15 +5457,15 @@
         <v>2017</v>
       </c>
       <c r="B223" t="s">
-        <v>45</v>
-      </c>
-      <c r="C223" t="s">
-        <v>7</v>
-      </c>
-      <c r="D223" t="s">
-        <v>8</v>
-      </c>
-      <c r="E223" t="s">
+        <v>44</v>
+      </c>
+      <c r="C223" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F223" s="1">
@@ -5486,13 +5479,13 @@
       <c r="B224" t="s">
         <v>6</v>
       </c>
-      <c r="C224" t="s">
-        <v>7</v>
-      </c>
-      <c r="D224" t="s">
-        <v>8</v>
-      </c>
-      <c r="E224" t="s">
+      <c r="C224" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F224" s="1">
@@ -5506,13 +5499,13 @@
       <c r="B225" t="s">
         <v>10</v>
       </c>
-      <c r="C225" t="s">
-        <v>7</v>
-      </c>
-      <c r="D225" t="s">
-        <v>8</v>
-      </c>
-      <c r="E225" t="s">
+      <c r="C225" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F225" s="1">
@@ -5526,13 +5519,13 @@
       <c r="B226" t="s">
         <v>11</v>
       </c>
-      <c r="C226" t="s">
-        <v>7</v>
-      </c>
-      <c r="D226" t="s">
-        <v>8</v>
-      </c>
-      <c r="E226" t="s">
+      <c r="C226" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F226" s="1">
@@ -5546,13 +5539,13 @@
       <c r="B227" t="s">
         <v>12</v>
       </c>
-      <c r="C227" t="s">
-        <v>7</v>
-      </c>
-      <c r="D227" t="s">
-        <v>8</v>
-      </c>
-      <c r="E227" t="s">
+      <c r="C227" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F227" s="1">
@@ -5566,13 +5559,13 @@
       <c r="B228" t="s">
         <v>13</v>
       </c>
-      <c r="C228" t="s">
-        <v>7</v>
-      </c>
-      <c r="D228" t="s">
-        <v>8</v>
-      </c>
-      <c r="E228" t="s">
+      <c r="C228" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E228" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F228" s="1">
@@ -5586,13 +5579,13 @@
       <c r="B229" t="s">
         <v>14</v>
       </c>
-      <c r="C229" t="s">
-        <v>7</v>
-      </c>
-      <c r="D229" t="s">
-        <v>8</v>
-      </c>
-      <c r="E229" t="s">
+      <c r="C229" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E229" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F229" s="1">
@@ -5606,13 +5599,13 @@
       <c r="B230" t="s">
         <v>15</v>
       </c>
-      <c r="C230" t="s">
-        <v>7</v>
-      </c>
-      <c r="D230" t="s">
-        <v>8</v>
-      </c>
-      <c r="E230" t="s">
+      <c r="C230" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F230" s="1">
@@ -5626,13 +5619,13 @@
       <c r="B231" t="s">
         <v>16</v>
       </c>
-      <c r="C231" t="s">
-        <v>7</v>
-      </c>
-      <c r="D231" t="s">
-        <v>8</v>
-      </c>
-      <c r="E231" t="s">
+      <c r="C231" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F231" s="1">
@@ -5646,13 +5639,13 @@
       <c r="B232" t="s">
         <v>17</v>
       </c>
-      <c r="C232" t="s">
-        <v>7</v>
-      </c>
-      <c r="D232" t="s">
-        <v>8</v>
-      </c>
-      <c r="E232" t="s">
+      <c r="C232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F232" s="1">
@@ -5666,13 +5659,13 @@
       <c r="B233" t="s">
         <v>18</v>
       </c>
-      <c r="C233" t="s">
-        <v>7</v>
-      </c>
-      <c r="D233" t="s">
-        <v>8</v>
-      </c>
-      <c r="E233" t="s">
+      <c r="C233" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F233" s="1">
@@ -5686,13 +5679,13 @@
       <c r="B234" t="s">
         <v>19</v>
       </c>
-      <c r="C234" t="s">
-        <v>7</v>
-      </c>
-      <c r="D234" t="s">
-        <v>8</v>
-      </c>
-      <c r="E234" t="s">
+      <c r="C234" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D234" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E234" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F234" s="1">
@@ -5706,13 +5699,13 @@
       <c r="B235" t="s">
         <v>20</v>
       </c>
-      <c r="C235" t="s">
-        <v>7</v>
-      </c>
-      <c r="D235" t="s">
-        <v>8</v>
-      </c>
-      <c r="E235" t="s">
+      <c r="C235" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F235" s="1">
@@ -5726,13 +5719,13 @@
       <c r="B236" t="s">
         <v>21</v>
       </c>
-      <c r="C236" t="s">
-        <v>7</v>
-      </c>
-      <c r="D236" t="s">
-        <v>8</v>
-      </c>
-      <c r="E236" t="s">
+      <c r="C236" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F236" s="1">
@@ -5746,13 +5739,13 @@
       <c r="B237" t="s">
         <v>22</v>
       </c>
-      <c r="C237" t="s">
-        <v>7</v>
-      </c>
-      <c r="D237" t="s">
-        <v>8</v>
-      </c>
-      <c r="E237" t="s">
+      <c r="C237" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F237" s="1">
@@ -5766,13 +5759,13 @@
       <c r="B238" t="s">
         <v>23</v>
       </c>
-      <c r="C238" t="s">
-        <v>7</v>
-      </c>
-      <c r="D238" t="s">
-        <v>8</v>
-      </c>
-      <c r="E238" t="s">
+      <c r="C238" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F238" s="1">
@@ -5786,13 +5779,13 @@
       <c r="B239" t="s">
         <v>24</v>
       </c>
-      <c r="C239" t="s">
-        <v>7</v>
-      </c>
-      <c r="D239" t="s">
-        <v>8</v>
-      </c>
-      <c r="E239" t="s">
+      <c r="C239" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E239" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F239" s="1">
@@ -5806,13 +5799,13 @@
       <c r="B240" t="s">
         <v>25</v>
       </c>
-      <c r="C240" t="s">
-        <v>7</v>
-      </c>
-      <c r="D240" t="s">
-        <v>8</v>
-      </c>
-      <c r="E240" t="s">
+      <c r="C240" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F240" s="1">
@@ -5826,13 +5819,13 @@
       <c r="B241" t="s">
         <v>26</v>
       </c>
-      <c r="C241" t="s">
-        <v>7</v>
-      </c>
-      <c r="D241" t="s">
-        <v>8</v>
-      </c>
-      <c r="E241" t="s">
+      <c r="C241" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D241" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F241" s="1">
@@ -5846,13 +5839,13 @@
       <c r="B242" t="s">
         <v>27</v>
       </c>
-      <c r="C242" t="s">
-        <v>7</v>
-      </c>
-      <c r="D242" t="s">
-        <v>8</v>
-      </c>
-      <c r="E242" t="s">
+      <c r="C242" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D242" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F242" s="1">
@@ -5866,13 +5859,13 @@
       <c r="B243" t="s">
         <v>28</v>
       </c>
-      <c r="C243" t="s">
-        <v>7</v>
-      </c>
-      <c r="D243" t="s">
-        <v>8</v>
-      </c>
-      <c r="E243" t="s">
+      <c r="C243" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E243" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F243" s="1">
@@ -5886,13 +5879,13 @@
       <c r="B244" t="s">
         <v>29</v>
       </c>
-      <c r="C244" t="s">
-        <v>7</v>
-      </c>
-      <c r="D244" t="s">
-        <v>8</v>
-      </c>
-      <c r="E244" t="s">
+      <c r="C244" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E244" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F244" s="1">
@@ -5906,13 +5899,13 @@
       <c r="B245" t="s">
         <v>30</v>
       </c>
-      <c r="C245" t="s">
-        <v>7</v>
-      </c>
-      <c r="D245" t="s">
-        <v>8</v>
-      </c>
-      <c r="E245" t="s">
+      <c r="C245" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F245" s="1">
@@ -5926,13 +5919,13 @@
       <c r="B246" t="s">
         <v>31</v>
       </c>
-      <c r="C246" t="s">
-        <v>7</v>
-      </c>
-      <c r="D246" t="s">
-        <v>8</v>
-      </c>
-      <c r="E246" t="s">
+      <c r="C246" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F246" s="1">
@@ -5946,13 +5939,13 @@
       <c r="B247" t="s">
         <v>32</v>
       </c>
-      <c r="C247" t="s">
-        <v>7</v>
-      </c>
-      <c r="D247" t="s">
-        <v>8</v>
-      </c>
-      <c r="E247" t="s">
+      <c r="C247" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F247" s="1">
@@ -5966,13 +5959,13 @@
       <c r="B248" t="s">
         <v>33</v>
       </c>
-      <c r="C248" t="s">
-        <v>7</v>
-      </c>
-      <c r="D248" t="s">
-        <v>8</v>
-      </c>
-      <c r="E248" t="s">
+      <c r="C248" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D248" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F248" s="1">
@@ -5986,13 +5979,13 @@
       <c r="B249" t="s">
         <v>34</v>
       </c>
-      <c r="C249" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" t="s">
-        <v>8</v>
-      </c>
-      <c r="E249" t="s">
+      <c r="C249" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D249" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F249" s="1">
@@ -6006,13 +5999,13 @@
       <c r="B250" t="s">
         <v>35</v>
       </c>
-      <c r="C250" t="s">
-        <v>7</v>
-      </c>
-      <c r="D250" t="s">
-        <v>8</v>
-      </c>
-      <c r="E250" t="s">
+      <c r="C250" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F250" s="1">
@@ -6026,13 +6019,13 @@
       <c r="B251" t="s">
         <v>36</v>
       </c>
-      <c r="C251" t="s">
-        <v>7</v>
-      </c>
-      <c r="D251" t="s">
-        <v>8</v>
-      </c>
-      <c r="E251" t="s">
+      <c r="C251" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F251" s="1">
@@ -6046,13 +6039,13 @@
       <c r="B252" t="s">
         <v>37</v>
       </c>
-      <c r="C252" t="s">
-        <v>7</v>
-      </c>
-      <c r="D252" t="s">
-        <v>8</v>
-      </c>
-      <c r="E252" t="s">
+      <c r="C252" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E252" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F252" s="1">
@@ -6066,13 +6059,13 @@
       <c r="B253" t="s">
         <v>38</v>
       </c>
-      <c r="C253" t="s">
-        <v>7</v>
-      </c>
-      <c r="D253" t="s">
-        <v>8</v>
-      </c>
-      <c r="E253" t="s">
+      <c r="C253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E253" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F253" s="1">
@@ -6086,13 +6079,13 @@
       <c r="B254" t="s">
         <v>39</v>
       </c>
-      <c r="C254" t="s">
-        <v>7</v>
-      </c>
-      <c r="D254" t="s">
-        <v>8</v>
-      </c>
-      <c r="E254" t="s">
+      <c r="C254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F254" s="1">
@@ -6106,13 +6099,13 @@
       <c r="B255" t="s">
         <v>40</v>
       </c>
-      <c r="C255" t="s">
-        <v>7</v>
-      </c>
-      <c r="D255" t="s">
-        <v>8</v>
-      </c>
-      <c r="E255" t="s">
+      <c r="C255" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D255" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F255" s="1">
@@ -6126,13 +6119,13 @@
       <c r="B256" t="s">
         <v>41</v>
       </c>
-      <c r="C256" t="s">
-        <v>7</v>
-      </c>
-      <c r="D256" t="s">
-        <v>8</v>
-      </c>
-      <c r="E256" t="s">
+      <c r="C256" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E256" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F256" s="1">
@@ -6146,13 +6139,13 @@
       <c r="B257" t="s">
         <v>42</v>
       </c>
-      <c r="C257" t="s">
-        <v>7</v>
-      </c>
-      <c r="D257" t="s">
-        <v>8</v>
-      </c>
-      <c r="E257" t="s">
+      <c r="C257" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D257" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E257" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F257" s="1">
@@ -6166,13 +6159,13 @@
       <c r="B258" t="s">
         <v>43</v>
       </c>
-      <c r="C258" t="s">
-        <v>7</v>
-      </c>
-      <c r="D258" t="s">
-        <v>8</v>
-      </c>
-      <c r="E258" t="s">
+      <c r="C258" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D258" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F258" s="1">
@@ -6184,15 +6177,15 @@
         <v>2018</v>
       </c>
       <c r="B259" t="s">
-        <v>44</v>
-      </c>
-      <c r="C259" t="s">
-        <v>7</v>
-      </c>
-      <c r="D259" t="s">
-        <v>8</v>
-      </c>
-      <c r="E259" t="s">
+        <v>45</v>
+      </c>
+      <c r="C259" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E259" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F259" s="1">
@@ -6204,15 +6197,15 @@
         <v>2018</v>
       </c>
       <c r="B260" t="s">
-        <v>45</v>
-      </c>
-      <c r="C260" t="s">
-        <v>7</v>
-      </c>
-      <c r="D260" t="s">
-        <v>8</v>
-      </c>
-      <c r="E260" t="s">
+        <v>44</v>
+      </c>
+      <c r="C260" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D260" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E260" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F260" s="1">
@@ -6226,13 +6219,13 @@
       <c r="B261" t="s">
         <v>6</v>
       </c>
-      <c r="C261" t="s">
-        <v>7</v>
-      </c>
-      <c r="D261" t="s">
-        <v>8</v>
-      </c>
-      <c r="E261" t="s">
+      <c r="C261" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D261" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E261" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F261" s="1">
@@ -6246,13 +6239,13 @@
       <c r="B262" t="s">
         <v>10</v>
       </c>
-      <c r="C262" t="s">
-        <v>7</v>
-      </c>
-      <c r="D262" t="s">
-        <v>8</v>
-      </c>
-      <c r="E262" t="s">
+      <c r="C262" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D262" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F262" s="1">
@@ -6266,13 +6259,13 @@
       <c r="B263" t="s">
         <v>11</v>
       </c>
-      <c r="C263" t="s">
-        <v>7</v>
-      </c>
-      <c r="D263" t="s">
-        <v>8</v>
-      </c>
-      <c r="E263" t="s">
+      <c r="C263" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E263" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F263" s="1">
@@ -6286,13 +6279,13 @@
       <c r="B264" t="s">
         <v>12</v>
       </c>
-      <c r="C264" t="s">
-        <v>7</v>
-      </c>
-      <c r="D264" t="s">
-        <v>8</v>
-      </c>
-      <c r="E264" t="s">
+      <c r="C264" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D264" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E264" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F264" s="1">
@@ -6306,13 +6299,13 @@
       <c r="B265" t="s">
         <v>13</v>
       </c>
-      <c r="C265" t="s">
-        <v>7</v>
-      </c>
-      <c r="D265" t="s">
-        <v>8</v>
-      </c>
-      <c r="E265" t="s">
+      <c r="C265" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D265" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E265" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F265" s="1">
@@ -6326,13 +6319,13 @@
       <c r="B266" t="s">
         <v>14</v>
       </c>
-      <c r="C266" t="s">
-        <v>7</v>
-      </c>
-      <c r="D266" t="s">
-        <v>8</v>
-      </c>
-      <c r="E266" t="s">
+      <c r="C266" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D266" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E266" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F266" s="1">
@@ -6346,13 +6339,13 @@
       <c r="B267" t="s">
         <v>15</v>
       </c>
-      <c r="C267" t="s">
-        <v>7</v>
-      </c>
-      <c r="D267" t="s">
-        <v>8</v>
-      </c>
-      <c r="E267" t="s">
+      <c r="C267" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D267" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E267" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F267" s="1">
@@ -6366,13 +6359,13 @@
       <c r="B268" t="s">
         <v>16</v>
       </c>
-      <c r="C268" t="s">
-        <v>7</v>
-      </c>
-      <c r="D268" t="s">
-        <v>8</v>
-      </c>
-      <c r="E268" t="s">
+      <c r="C268" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D268" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F268" s="1">
@@ -6386,13 +6379,13 @@
       <c r="B269" t="s">
         <v>17</v>
       </c>
-      <c r="C269" t="s">
-        <v>7</v>
-      </c>
-      <c r="D269" t="s">
-        <v>8</v>
-      </c>
-      <c r="E269" t="s">
+      <c r="C269" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D269" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F269" s="1">
@@ -6406,13 +6399,13 @@
       <c r="B270" t="s">
         <v>18</v>
       </c>
-      <c r="C270" t="s">
-        <v>7</v>
-      </c>
-      <c r="D270" t="s">
-        <v>8</v>
-      </c>
-      <c r="E270" t="s">
+      <c r="C270" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E270" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F270" s="1">
@@ -6426,13 +6419,13 @@
       <c r="B271" t="s">
         <v>19</v>
       </c>
-      <c r="C271" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" t="s">
-        <v>8</v>
-      </c>
-      <c r="E271" t="s">
+      <c r="C271" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F271" s="1">
@@ -6446,13 +6439,13 @@
       <c r="B272" t="s">
         <v>20</v>
       </c>
-      <c r="C272" t="s">
-        <v>7</v>
-      </c>
-      <c r="D272" t="s">
-        <v>8</v>
-      </c>
-      <c r="E272" t="s">
+      <c r="C272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F272" s="1">
@@ -6466,13 +6459,13 @@
       <c r="B273" t="s">
         <v>21</v>
       </c>
-      <c r="C273" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" t="s">
-        <v>8</v>
-      </c>
-      <c r="E273" t="s">
+      <c r="C273" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F273" s="1">
@@ -6486,13 +6479,13 @@
       <c r="B274" t="s">
         <v>22</v>
       </c>
-      <c r="C274" t="s">
-        <v>7</v>
-      </c>
-      <c r="D274" t="s">
-        <v>8</v>
-      </c>
-      <c r="E274" t="s">
+      <c r="C274" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F274" s="1">
@@ -6506,13 +6499,13 @@
       <c r="B275" t="s">
         <v>23</v>
       </c>
-      <c r="C275" t="s">
-        <v>7</v>
-      </c>
-      <c r="D275" t="s">
-        <v>8</v>
-      </c>
-      <c r="E275" t="s">
+      <c r="C275" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F275" s="1">
@@ -6526,13 +6519,13 @@
       <c r="B276" t="s">
         <v>24</v>
       </c>
-      <c r="C276" t="s">
-        <v>7</v>
-      </c>
-      <c r="D276" t="s">
-        <v>8</v>
-      </c>
-      <c r="E276" t="s">
+      <c r="C276" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D276" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E276" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F276" s="1">
@@ -6546,13 +6539,13 @@
       <c r="B277" t="s">
         <v>25</v>
       </c>
-      <c r="C277" t="s">
-        <v>7</v>
-      </c>
-      <c r="D277" t="s">
-        <v>8</v>
-      </c>
-      <c r="E277" t="s">
+      <c r="C277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D277" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E277" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F277" s="1">
@@ -6566,13 +6559,13 @@
       <c r="B278" t="s">
         <v>26</v>
       </c>
-      <c r="C278" t="s">
-        <v>7</v>
-      </c>
-      <c r="D278" t="s">
-        <v>8</v>
-      </c>
-      <c r="E278" t="s">
+      <c r="C278" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E278" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F278" s="1">
@@ -6586,13 +6579,13 @@
       <c r="B279" t="s">
         <v>27</v>
       </c>
-      <c r="C279" t="s">
-        <v>7</v>
-      </c>
-      <c r="D279" t="s">
-        <v>8</v>
-      </c>
-      <c r="E279" t="s">
+      <c r="C279" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D279" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E279" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F279" s="1">
@@ -6606,13 +6599,13 @@
       <c r="B280" t="s">
         <v>28</v>
       </c>
-      <c r="C280" t="s">
-        <v>7</v>
-      </c>
-      <c r="D280" t="s">
-        <v>8</v>
-      </c>
-      <c r="E280" t="s">
+      <c r="C280" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F280" s="1">
@@ -6626,13 +6619,13 @@
       <c r="B281" t="s">
         <v>29</v>
       </c>
-      <c r="C281" t="s">
-        <v>7</v>
-      </c>
-      <c r="D281" t="s">
-        <v>8</v>
-      </c>
-      <c r="E281" t="s">
+      <c r="C281" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D281" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E281" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F281" s="1">
@@ -6646,13 +6639,13 @@
       <c r="B282" t="s">
         <v>30</v>
       </c>
-      <c r="C282" t="s">
-        <v>7</v>
-      </c>
-      <c r="D282" t="s">
-        <v>8</v>
-      </c>
-      <c r="E282" t="s">
+      <c r="C282" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D282" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F282" s="1">
@@ -6666,13 +6659,13 @@
       <c r="B283" t="s">
         <v>31</v>
       </c>
-      <c r="C283" t="s">
-        <v>7</v>
-      </c>
-      <c r="D283" t="s">
-        <v>8</v>
-      </c>
-      <c r="E283" t="s">
+      <c r="C283" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D283" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E283" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F283" s="1">
@@ -6686,13 +6679,13 @@
       <c r="B284" t="s">
         <v>32</v>
       </c>
-      <c r="C284" t="s">
-        <v>7</v>
-      </c>
-      <c r="D284" t="s">
-        <v>8</v>
-      </c>
-      <c r="E284" t="s">
+      <c r="C284" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D284" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E284" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F284" s="1">
@@ -6706,13 +6699,13 @@
       <c r="B285" t="s">
         <v>33</v>
       </c>
-      <c r="C285" t="s">
-        <v>7</v>
-      </c>
-      <c r="D285" t="s">
-        <v>8</v>
-      </c>
-      <c r="E285" t="s">
+      <c r="C285" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D285" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E285" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F285" s="1">
@@ -6726,13 +6719,13 @@
       <c r="B286" t="s">
         <v>34</v>
       </c>
-      <c r="C286" t="s">
-        <v>7</v>
-      </c>
-      <c r="D286" t="s">
-        <v>8</v>
-      </c>
-      <c r="E286" t="s">
+      <c r="C286" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E286" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F286" s="1">
@@ -6746,13 +6739,13 @@
       <c r="B287" t="s">
         <v>35</v>
       </c>
-      <c r="C287" t="s">
-        <v>7</v>
-      </c>
-      <c r="D287" t="s">
-        <v>8</v>
-      </c>
-      <c r="E287" t="s">
+      <c r="C287" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D287" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E287" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F287" s="1">
@@ -6766,13 +6759,13 @@
       <c r="B288" t="s">
         <v>36</v>
       </c>
-      <c r="C288" t="s">
-        <v>7</v>
-      </c>
-      <c r="D288" t="s">
-        <v>8</v>
-      </c>
-      <c r="E288" t="s">
+      <c r="C288" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D288" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E288" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F288" s="1">
@@ -6786,13 +6779,13 @@
       <c r="B289" t="s">
         <v>37</v>
       </c>
-      <c r="C289" t="s">
-        <v>7</v>
-      </c>
-      <c r="D289" t="s">
-        <v>8</v>
-      </c>
-      <c r="E289" t="s">
+      <c r="C289" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D289" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E289" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F289" s="1">
@@ -6806,13 +6799,13 @@
       <c r="B290" t="s">
         <v>38</v>
       </c>
-      <c r="C290" t="s">
-        <v>7</v>
-      </c>
-      <c r="D290" t="s">
-        <v>8</v>
-      </c>
-      <c r="E290" t="s">
+      <c r="C290" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D290" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E290" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F290" s="1">
@@ -6826,13 +6819,13 @@
       <c r="B291" t="s">
         <v>39</v>
       </c>
-      <c r="C291" t="s">
-        <v>7</v>
-      </c>
-      <c r="D291" t="s">
-        <v>8</v>
-      </c>
-      <c r="E291" t="s">
+      <c r="C291" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D291" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E291" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F291" s="1">
@@ -6846,13 +6839,13 @@
       <c r="B292" t="s">
         <v>40</v>
       </c>
-      <c r="C292" t="s">
-        <v>7</v>
-      </c>
-      <c r="D292" t="s">
-        <v>8</v>
-      </c>
-      <c r="E292" t="s">
+      <c r="C292" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E292" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F292" s="1">
@@ -6866,13 +6859,13 @@
       <c r="B293" t="s">
         <v>41</v>
       </c>
-      <c r="C293" t="s">
-        <v>7</v>
-      </c>
-      <c r="D293" t="s">
-        <v>8</v>
-      </c>
-      <c r="E293" t="s">
+      <c r="C293" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D293" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E293" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F293" s="1">
@@ -6886,13 +6879,13 @@
       <c r="B294" t="s">
         <v>42</v>
       </c>
-      <c r="C294" t="s">
-        <v>7</v>
-      </c>
-      <c r="D294" t="s">
-        <v>8</v>
-      </c>
-      <c r="E294" t="s">
+      <c r="C294" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D294" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E294" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F294" s="1">
@@ -6906,13 +6899,13 @@
       <c r="B295" t="s">
         <v>43</v>
       </c>
-      <c r="C295" t="s">
-        <v>7</v>
-      </c>
-      <c r="D295" t="s">
-        <v>8</v>
-      </c>
-      <c r="E295" t="s">
+      <c r="C295" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D295" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E295" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F295" s="1">
@@ -6924,15 +6917,15 @@
         <v>2019</v>
       </c>
       <c r="B296" t="s">
-        <v>44</v>
-      </c>
-      <c r="C296" t="s">
-        <v>7</v>
-      </c>
-      <c r="D296" t="s">
-        <v>8</v>
-      </c>
-      <c r="E296" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E296" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F296" s="1">
@@ -6944,15 +6937,15 @@
         <v>2019</v>
       </c>
       <c r="B297" t="s">
-        <v>45</v>
-      </c>
-      <c r="C297" t="s">
-        <v>7</v>
-      </c>
-      <c r="D297" t="s">
-        <v>8</v>
-      </c>
-      <c r="E297" t="s">
+        <v>44</v>
+      </c>
+      <c r="C297" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D297" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E297" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F297" s="1">
@@ -6966,13 +6959,13 @@
       <c r="B298" t="s">
         <v>6</v>
       </c>
-      <c r="C298" t="s">
-        <v>7</v>
-      </c>
-      <c r="D298" t="s">
-        <v>8</v>
-      </c>
-      <c r="E298" t="s">
+      <c r="C298" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D298" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E298" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F298" s="1">
@@ -6986,13 +6979,13 @@
       <c r="B299" t="s">
         <v>10</v>
       </c>
-      <c r="C299" t="s">
-        <v>7</v>
-      </c>
-      <c r="D299" t="s">
-        <v>8</v>
-      </c>
-      <c r="E299" t="s">
+      <c r="C299" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D299" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E299" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F299" s="1">
@@ -7006,13 +6999,13 @@
       <c r="B300" t="s">
         <v>11</v>
       </c>
-      <c r="C300" t="s">
-        <v>7</v>
-      </c>
-      <c r="D300" t="s">
-        <v>8</v>
-      </c>
-      <c r="E300" t="s">
+      <c r="C300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D300" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E300" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F300" s="1">
@@ -7026,13 +7019,13 @@
       <c r="B301" t="s">
         <v>12</v>
       </c>
-      <c r="C301" t="s">
-        <v>7</v>
-      </c>
-      <c r="D301" t="s">
-        <v>8</v>
-      </c>
-      <c r="E301" t="s">
+      <c r="C301" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E301" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F301" s="1">
@@ -7046,13 +7039,13 @@
       <c r="B302" t="s">
         <v>13</v>
       </c>
-      <c r="C302" t="s">
-        <v>7</v>
-      </c>
-      <c r="D302" t="s">
-        <v>8</v>
-      </c>
-      <c r="E302" t="s">
+      <c r="C302" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E302" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F302" s="1">
@@ -7066,13 +7059,13 @@
       <c r="B303" t="s">
         <v>14</v>
       </c>
-      <c r="C303" t="s">
-        <v>7</v>
-      </c>
-      <c r="D303" t="s">
-        <v>8</v>
-      </c>
-      <c r="E303" t="s">
+      <c r="C303" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F303" s="1">
@@ -7086,13 +7079,13 @@
       <c r="B304" t="s">
         <v>15</v>
       </c>
-      <c r="C304" t="s">
-        <v>7</v>
-      </c>
-      <c r="D304" t="s">
-        <v>8</v>
-      </c>
-      <c r="E304" t="s">
+      <c r="C304" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F304" s="1">
@@ -7106,13 +7099,13 @@
       <c r="B305" t="s">
         <v>16</v>
       </c>
-      <c r="C305" t="s">
-        <v>7</v>
-      </c>
-      <c r="D305" t="s">
-        <v>8</v>
-      </c>
-      <c r="E305" t="s">
+      <c r="C305" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D305" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E305" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F305" s="1">
@@ -7126,13 +7119,13 @@
       <c r="B306" t="s">
         <v>17</v>
       </c>
-      <c r="C306" t="s">
-        <v>7</v>
-      </c>
-      <c r="D306" t="s">
-        <v>8</v>
-      </c>
-      <c r="E306" t="s">
+      <c r="C306" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D306" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E306" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F306" s="1">
@@ -7146,13 +7139,13 @@
       <c r="B307" t="s">
         <v>18</v>
       </c>
-      <c r="C307" t="s">
-        <v>7</v>
-      </c>
-      <c r="D307" t="s">
-        <v>8</v>
-      </c>
-      <c r="E307" t="s">
+      <c r="C307" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D307" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E307" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F307" s="1">
@@ -7166,13 +7159,13 @@
       <c r="B308" t="s">
         <v>19</v>
       </c>
-      <c r="C308" t="s">
-        <v>7</v>
-      </c>
-      <c r="D308" t="s">
-        <v>8</v>
-      </c>
-      <c r="E308" t="s">
+      <c r="C308" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D308" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E308" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F308" s="1">
@@ -7186,13 +7179,13 @@
       <c r="B309" t="s">
         <v>20</v>
       </c>
-      <c r="C309" t="s">
-        <v>7</v>
-      </c>
-      <c r="D309" t="s">
-        <v>8</v>
-      </c>
-      <c r="E309" t="s">
+      <c r="C309" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D309" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E309" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F309" s="1">
@@ -7206,13 +7199,13 @@
       <c r="B310" t="s">
         <v>21</v>
       </c>
-      <c r="C310" t="s">
-        <v>7</v>
-      </c>
-      <c r="D310" t="s">
-        <v>8</v>
-      </c>
-      <c r="E310" t="s">
+      <c r="C310" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D310" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E310" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F310" s="1">
@@ -7226,13 +7219,13 @@
       <c r="B311" t="s">
         <v>22</v>
       </c>
-      <c r="C311" t="s">
-        <v>7</v>
-      </c>
-      <c r="D311" t="s">
-        <v>8</v>
-      </c>
-      <c r="E311" t="s">
+      <c r="C311" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D311" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E311" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F311" s="1">
@@ -7246,13 +7239,13 @@
       <c r="B312" t="s">
         <v>23</v>
       </c>
-      <c r="C312" t="s">
-        <v>7</v>
-      </c>
-      <c r="D312" t="s">
-        <v>8</v>
-      </c>
-      <c r="E312" t="s">
+      <c r="C312" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D312" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F312" s="1">
@@ -7266,13 +7259,13 @@
       <c r="B313" t="s">
         <v>24</v>
       </c>
-      <c r="C313" t="s">
-        <v>7</v>
-      </c>
-      <c r="D313" t="s">
-        <v>8</v>
-      </c>
-      <c r="E313" t="s">
+      <c r="C313" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D313" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F313" s="1">
@@ -7286,13 +7279,13 @@
       <c r="B314" t="s">
         <v>25</v>
       </c>
-      <c r="C314" t="s">
-        <v>7</v>
-      </c>
-      <c r="D314" t="s">
-        <v>8</v>
-      </c>
-      <c r="E314" t="s">
+      <c r="C314" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D314" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F314" s="1">
@@ -7306,13 +7299,13 @@
       <c r="B315" t="s">
         <v>26</v>
       </c>
-      <c r="C315" t="s">
-        <v>7</v>
-      </c>
-      <c r="D315" t="s">
-        <v>8</v>
-      </c>
-      <c r="E315" t="s">
+      <c r="C315" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D315" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E315" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F315" s="1">
@@ -7326,13 +7319,13 @@
       <c r="B316" t="s">
         <v>27</v>
       </c>
-      <c r="C316" t="s">
-        <v>7</v>
-      </c>
-      <c r="D316" t="s">
-        <v>8</v>
-      </c>
-      <c r="E316" t="s">
+      <c r="C316" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D316" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E316" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F316" s="1">
@@ -7346,13 +7339,13 @@
       <c r="B317" t="s">
         <v>28</v>
       </c>
-      <c r="C317" t="s">
-        <v>7</v>
-      </c>
-      <c r="D317" t="s">
-        <v>8</v>
-      </c>
-      <c r="E317" t="s">
+      <c r="C317" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D317" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E317" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F317" s="1">
@@ -7366,13 +7359,13 @@
       <c r="B318" t="s">
         <v>29</v>
       </c>
-      <c r="C318" t="s">
-        <v>7</v>
-      </c>
-      <c r="D318" t="s">
-        <v>8</v>
-      </c>
-      <c r="E318" t="s">
+      <c r="C318" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D318" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E318" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F318" s="1">
@@ -7386,13 +7379,13 @@
       <c r="B319" t="s">
         <v>30</v>
       </c>
-      <c r="C319" t="s">
-        <v>7</v>
-      </c>
-      <c r="D319" t="s">
-        <v>8</v>
-      </c>
-      <c r="E319" t="s">
+      <c r="C319" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D319" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E319" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F319" s="1">
@@ -7406,13 +7399,13 @@
       <c r="B320" t="s">
         <v>31</v>
       </c>
-      <c r="C320" t="s">
-        <v>7</v>
-      </c>
-      <c r="D320" t="s">
-        <v>8</v>
-      </c>
-      <c r="E320" t="s">
+      <c r="C320" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D320" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E320" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F320" s="1">
@@ -7426,13 +7419,13 @@
       <c r="B321" t="s">
         <v>32</v>
       </c>
-      <c r="C321" t="s">
-        <v>7</v>
-      </c>
-      <c r="D321" t="s">
-        <v>8</v>
-      </c>
-      <c r="E321" t="s">
+      <c r="C321" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D321" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E321" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F321" s="1">
@@ -7446,13 +7439,13 @@
       <c r="B322" t="s">
         <v>33</v>
       </c>
-      <c r="C322" t="s">
-        <v>7</v>
-      </c>
-      <c r="D322" t="s">
-        <v>8</v>
-      </c>
-      <c r="E322" t="s">
+      <c r="C322" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D322" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E322" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F322" s="1">
@@ -7466,13 +7459,13 @@
       <c r="B323" t="s">
         <v>34</v>
       </c>
-      <c r="C323" t="s">
-        <v>7</v>
-      </c>
-      <c r="D323" t="s">
-        <v>8</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="C323" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D323" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E323" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F323" s="1">
@@ -7486,13 +7479,13 @@
       <c r="B324" t="s">
         <v>35</v>
       </c>
-      <c r="C324" t="s">
-        <v>7</v>
-      </c>
-      <c r="D324" t="s">
-        <v>8</v>
-      </c>
-      <c r="E324" t="s">
+      <c r="C324" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E324" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F324" s="1">
@@ -7506,13 +7499,13 @@
       <c r="B325" t="s">
         <v>36</v>
       </c>
-      <c r="C325" t="s">
-        <v>7</v>
-      </c>
-      <c r="D325" t="s">
-        <v>8</v>
-      </c>
-      <c r="E325" t="s">
+      <c r="C325" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E325" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F325" s="1">
@@ -7526,13 +7519,13 @@
       <c r="B326" t="s">
         <v>37</v>
       </c>
-      <c r="C326" t="s">
-        <v>7</v>
-      </c>
-      <c r="D326" t="s">
-        <v>8</v>
-      </c>
-      <c r="E326" t="s">
+      <c r="C326" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E326" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F326" s="1">
@@ -7546,13 +7539,13 @@
       <c r="B327" t="s">
         <v>38</v>
       </c>
-      <c r="C327" t="s">
-        <v>7</v>
-      </c>
-      <c r="D327" t="s">
-        <v>8</v>
-      </c>
-      <c r="E327" t="s">
+      <c r="C327" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D327" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E327" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F327" s="1">
@@ -7566,13 +7559,13 @@
       <c r="B328" t="s">
         <v>39</v>
       </c>
-      <c r="C328" t="s">
-        <v>7</v>
-      </c>
-      <c r="D328" t="s">
-        <v>8</v>
-      </c>
-      <c r="E328" t="s">
+      <c r="C328" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D328" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E328" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F328" s="1">
@@ -7586,18 +7579,16 @@
       <c r="B329" t="s">
         <v>40</v>
       </c>
-      <c r="C329" t="s">
-        <v>7</v>
-      </c>
-      <c r="D329" t="s">
-        <v>8</v>
-      </c>
-      <c r="E329" t="s">
-        <v>9</v>
-      </c>
-      <c r="F329" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C329" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D329" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E329" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F329" s="1"/>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A330">
@@ -7606,13 +7597,13 @@
       <c r="B330" t="s">
         <v>41</v>
       </c>
-      <c r="C330" t="s">
-        <v>7</v>
-      </c>
-      <c r="D330" t="s">
-        <v>8</v>
-      </c>
-      <c r="E330" t="s">
+      <c r="C330" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E330" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F330" s="1">
@@ -7626,18 +7617,16 @@
       <c r="B331" t="s">
         <v>42</v>
       </c>
-      <c r="C331" t="s">
-        <v>7</v>
-      </c>
-      <c r="D331" t="s">
-        <v>8</v>
-      </c>
-      <c r="E331" t="s">
-        <v>9</v>
-      </c>
-      <c r="F331" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C331" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F331" s="1"/>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A332">
@@ -7646,13 +7635,13 @@
       <c r="B332" t="s">
         <v>43</v>
       </c>
-      <c r="C332" t="s">
-        <v>7</v>
-      </c>
-      <c r="D332" t="s">
-        <v>8</v>
-      </c>
-      <c r="E332" t="s">
+      <c r="C332" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E332" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F332" s="1">
@@ -7664,40 +7653,36 @@
         <v>2020</v>
       </c>
       <c r="B333" t="s">
-        <v>44</v>
-      </c>
-      <c r="C333" t="s">
-        <v>7</v>
-      </c>
-      <c r="D333" t="s">
-        <v>8</v>
-      </c>
-      <c r="E333" t="s">
-        <v>9</v>
-      </c>
-      <c r="F333" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F333" s="1"/>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>2020</v>
       </c>
       <c r="B334" t="s">
-        <v>45</v>
-      </c>
-      <c r="C334" t="s">
-        <v>7</v>
-      </c>
-      <c r="D334" t="s">
-        <v>8</v>
-      </c>
-      <c r="E334" t="s">
-        <v>9</v>
-      </c>
-      <c r="F334" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F334" s="1"/>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A335">
@@ -7706,13 +7691,13 @@
       <c r="B335" t="s">
         <v>6</v>
       </c>
-      <c r="C335" t="s">
-        <v>7</v>
-      </c>
-      <c r="D335" t="s">
-        <v>8</v>
-      </c>
-      <c r="E335" t="s">
+      <c r="C335" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E335" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F335" s="1">
@@ -7726,13 +7711,13 @@
       <c r="B336" t="s">
         <v>10</v>
       </c>
-      <c r="C336" t="s">
-        <v>7</v>
-      </c>
-      <c r="D336" t="s">
-        <v>8</v>
-      </c>
-      <c r="E336" t="s">
+      <c r="C336" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E336" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F336" s="1">
@@ -7746,13 +7731,13 @@
       <c r="B337" t="s">
         <v>11</v>
       </c>
-      <c r="C337" t="s">
-        <v>7</v>
-      </c>
-      <c r="D337" t="s">
-        <v>8</v>
-      </c>
-      <c r="E337" t="s">
+      <c r="C337" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E337" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F337" s="1">
@@ -7766,13 +7751,13 @@
       <c r="B338" t="s">
         <v>12</v>
       </c>
-      <c r="C338" t="s">
-        <v>7</v>
-      </c>
-      <c r="D338" t="s">
-        <v>8</v>
-      </c>
-      <c r="E338" t="s">
+      <c r="C338" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E338" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F338" s="1">
@@ -7786,13 +7771,13 @@
       <c r="B339" t="s">
         <v>13</v>
       </c>
-      <c r="C339" t="s">
-        <v>7</v>
-      </c>
-      <c r="D339" t="s">
-        <v>8</v>
-      </c>
-      <c r="E339" t="s">
+      <c r="C339" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E339" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F339" s="1">
@@ -7806,13 +7791,13 @@
       <c r="B340" t="s">
         <v>14</v>
       </c>
-      <c r="C340" t="s">
-        <v>7</v>
-      </c>
-      <c r="D340" t="s">
-        <v>8</v>
-      </c>
-      <c r="E340" t="s">
+      <c r="C340" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E340" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F340" s="1">
@@ -7826,13 +7811,13 @@
       <c r="B341" t="s">
         <v>15</v>
       </c>
-      <c r="C341" t="s">
-        <v>7</v>
-      </c>
-      <c r="D341" t="s">
-        <v>8</v>
-      </c>
-      <c r="E341" t="s">
+      <c r="C341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E341" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F341" s="1">
@@ -7846,13 +7831,13 @@
       <c r="B342" t="s">
         <v>16</v>
       </c>
-      <c r="C342" t="s">
-        <v>7</v>
-      </c>
-      <c r="D342" t="s">
-        <v>8</v>
-      </c>
-      <c r="E342" t="s">
+      <c r="C342" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E342" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F342" s="1">
@@ -7866,13 +7851,13 @@
       <c r="B343" t="s">
         <v>17</v>
       </c>
-      <c r="C343" t="s">
-        <v>7</v>
-      </c>
-      <c r="D343" t="s">
-        <v>8</v>
-      </c>
-      <c r="E343" t="s">
+      <c r="C343" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E343" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F343" s="1">
@@ -7886,13 +7871,13 @@
       <c r="B344" t="s">
         <v>18</v>
       </c>
-      <c r="C344" t="s">
-        <v>7</v>
-      </c>
-      <c r="D344" t="s">
-        <v>8</v>
-      </c>
-      <c r="E344" t="s">
+      <c r="C344" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F344" s="1">
@@ -7906,13 +7891,13 @@
       <c r="B345" t="s">
         <v>19</v>
       </c>
-      <c r="C345" t="s">
-        <v>7</v>
-      </c>
-      <c r="D345" t="s">
-        <v>8</v>
-      </c>
-      <c r="E345" t="s">
+      <c r="C345" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E345" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F345" s="1">
@@ -7926,13 +7911,13 @@
       <c r="B346" t="s">
         <v>20</v>
       </c>
-      <c r="C346" t="s">
-        <v>7</v>
-      </c>
-      <c r="D346" t="s">
-        <v>8</v>
-      </c>
-      <c r="E346" t="s">
+      <c r="C346" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E346" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F346" s="1">
@@ -7946,13 +7931,13 @@
       <c r="B347" t="s">
         <v>21</v>
       </c>
-      <c r="C347" t="s">
-        <v>7</v>
-      </c>
-      <c r="D347" t="s">
-        <v>8</v>
-      </c>
-      <c r="E347" t="s">
+      <c r="C347" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E347" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F347" s="1">
@@ -7966,13 +7951,13 @@
       <c r="B348" t="s">
         <v>22</v>
       </c>
-      <c r="C348" t="s">
-        <v>7</v>
-      </c>
-      <c r="D348" t="s">
-        <v>8</v>
-      </c>
-      <c r="E348" t="s">
+      <c r="C348" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E348" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F348" s="1">
@@ -7986,13 +7971,13 @@
       <c r="B349" t="s">
         <v>23</v>
       </c>
-      <c r="C349" t="s">
-        <v>7</v>
-      </c>
-      <c r="D349" t="s">
-        <v>8</v>
-      </c>
-      <c r="E349" t="s">
+      <c r="C349" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E349" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F349" s="1">
@@ -8006,13 +7991,13 @@
       <c r="B350" t="s">
         <v>24</v>
       </c>
-      <c r="C350" t="s">
-        <v>7</v>
-      </c>
-      <c r="D350" t="s">
-        <v>8</v>
-      </c>
-      <c r="E350" t="s">
+      <c r="C350" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F350" s="1">
@@ -8026,13 +8011,13 @@
       <c r="B351" t="s">
         <v>25</v>
       </c>
-      <c r="C351" t="s">
-        <v>7</v>
-      </c>
-      <c r="D351" t="s">
-        <v>8</v>
-      </c>
-      <c r="E351" t="s">
+      <c r="C351" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E351" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F351" s="1">
@@ -8046,13 +8031,13 @@
       <c r="B352" t="s">
         <v>26</v>
       </c>
-      <c r="C352" t="s">
-        <v>7</v>
-      </c>
-      <c r="D352" t="s">
-        <v>8</v>
-      </c>
-      <c r="E352" t="s">
+      <c r="C352" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F352" s="1">
@@ -8066,13 +8051,13 @@
       <c r="B353" t="s">
         <v>27</v>
       </c>
-      <c r="C353" t="s">
-        <v>7</v>
-      </c>
-      <c r="D353" t="s">
-        <v>8</v>
-      </c>
-      <c r="E353" t="s">
+      <c r="C353" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F353" s="1">
@@ -8086,13 +8071,13 @@
       <c r="B354" t="s">
         <v>28</v>
       </c>
-      <c r="C354" t="s">
-        <v>7</v>
-      </c>
-      <c r="D354" t="s">
-        <v>8</v>
-      </c>
-      <c r="E354" t="s">
+      <c r="C354" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E354" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F354" s="1">
@@ -8106,13 +8091,13 @@
       <c r="B355" t="s">
         <v>29</v>
       </c>
-      <c r="C355" t="s">
-        <v>7</v>
-      </c>
-      <c r="D355" t="s">
-        <v>8</v>
-      </c>
-      <c r="E355" t="s">
+      <c r="C355" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D355" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E355" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F355" s="1">
@@ -8126,13 +8111,13 @@
       <c r="B356" t="s">
         <v>30</v>
       </c>
-      <c r="C356" t="s">
-        <v>7</v>
-      </c>
-      <c r="D356" t="s">
-        <v>8</v>
-      </c>
-      <c r="E356" t="s">
+      <c r="C356" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D356" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E356" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F356" s="1">
@@ -8146,13 +8131,13 @@
       <c r="B357" t="s">
         <v>31</v>
       </c>
-      <c r="C357" t="s">
-        <v>7</v>
-      </c>
-      <c r="D357" t="s">
-        <v>8</v>
-      </c>
-      <c r="E357" t="s">
+      <c r="C357" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D357" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E357" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F357" s="1">
@@ -8166,13 +8151,13 @@
       <c r="B358" t="s">
         <v>32</v>
       </c>
-      <c r="C358" t="s">
-        <v>7</v>
-      </c>
-      <c r="D358" t="s">
-        <v>8</v>
-      </c>
-      <c r="E358" t="s">
+      <c r="C358" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D358" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E358" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F358" s="1">
@@ -8186,13 +8171,13 @@
       <c r="B359" t="s">
         <v>33</v>
       </c>
-      <c r="C359" t="s">
-        <v>7</v>
-      </c>
-      <c r="D359" t="s">
-        <v>8</v>
-      </c>
-      <c r="E359" t="s">
+      <c r="C359" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D359" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E359" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F359" s="1">
@@ -8206,13 +8191,13 @@
       <c r="B360" t="s">
         <v>34</v>
       </c>
-      <c r="C360" t="s">
-        <v>7</v>
-      </c>
-      <c r="D360" t="s">
-        <v>8</v>
-      </c>
-      <c r="E360" t="s">
+      <c r="C360" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D360" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E360" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F360" s="1">
@@ -8226,13 +8211,13 @@
       <c r="B361" t="s">
         <v>35</v>
       </c>
-      <c r="C361" t="s">
-        <v>7</v>
-      </c>
-      <c r="D361" t="s">
-        <v>8</v>
-      </c>
-      <c r="E361" t="s">
+      <c r="C361" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D361" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E361" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F361" s="1">
@@ -8246,13 +8231,13 @@
       <c r="B362" t="s">
         <v>36</v>
       </c>
-      <c r="C362" t="s">
-        <v>7</v>
-      </c>
-      <c r="D362" t="s">
-        <v>8</v>
-      </c>
-      <c r="E362" t="s">
+      <c r="C362" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D362" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E362" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F362" s="1">
@@ -8266,18 +8251,16 @@
       <c r="B363" t="s">
         <v>37</v>
       </c>
-      <c r="C363" t="s">
-        <v>7</v>
-      </c>
-      <c r="D363" t="s">
-        <v>8</v>
-      </c>
-      <c r="E363" t="s">
-        <v>9</v>
-      </c>
-      <c r="F363" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C363" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D363" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E363" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F363" s="1"/>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A364">
@@ -8286,18 +8269,16 @@
       <c r="B364" t="s">
         <v>38</v>
       </c>
-      <c r="C364" t="s">
-        <v>7</v>
-      </c>
-      <c r="D364" t="s">
-        <v>8</v>
-      </c>
-      <c r="E364" t="s">
-        <v>9</v>
-      </c>
-      <c r="F364" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C364" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D364" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E364" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F364" s="1"/>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A365">
@@ -8306,18 +8287,16 @@
       <c r="B365" t="s">
         <v>39</v>
       </c>
-      <c r="C365" t="s">
-        <v>7</v>
-      </c>
-      <c r="D365" t="s">
-        <v>8</v>
-      </c>
-      <c r="E365" t="s">
-        <v>9</v>
-      </c>
-      <c r="F365" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C365" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D365" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E365" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F365" s="1"/>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A366">
@@ -8326,18 +8305,16 @@
       <c r="B366" t="s">
         <v>40</v>
       </c>
-      <c r="C366" t="s">
-        <v>7</v>
-      </c>
-      <c r="D366" t="s">
-        <v>8</v>
-      </c>
-      <c r="E366" t="s">
-        <v>9</v>
-      </c>
-      <c r="F366" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C366" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D366" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E366" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F366" s="1"/>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A367">
@@ -8346,18 +8323,16 @@
       <c r="B367" t="s">
         <v>41</v>
       </c>
-      <c r="C367" t="s">
-        <v>7</v>
-      </c>
-      <c r="D367" t="s">
-        <v>8</v>
-      </c>
-      <c r="E367" t="s">
-        <v>9</v>
-      </c>
-      <c r="F367" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C367" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E367" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F367" s="1"/>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A368">
@@ -8366,18 +8341,16 @@
       <c r="B368" t="s">
         <v>42</v>
       </c>
-      <c r="C368" t="s">
-        <v>7</v>
-      </c>
-      <c r="D368" t="s">
-        <v>8</v>
-      </c>
-      <c r="E368" t="s">
-        <v>9</v>
-      </c>
-      <c r="F368" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C368" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D368" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E368" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F368" s="1"/>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A369">
@@ -8386,58 +8359,52 @@
       <c r="B369" t="s">
         <v>43</v>
       </c>
-      <c r="C369" t="s">
-        <v>7</v>
-      </c>
-      <c r="D369" t="s">
-        <v>8</v>
-      </c>
-      <c r="E369" t="s">
-        <v>9</v>
-      </c>
-      <c r="F369" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="C369" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D369" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E369" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F369" s="1"/>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A370">
         <v>2021</v>
       </c>
       <c r="B370" t="s">
-        <v>44</v>
-      </c>
-      <c r="C370" t="s">
-        <v>7</v>
-      </c>
-      <c r="D370" t="s">
-        <v>8</v>
-      </c>
-      <c r="E370" t="s">
-        <v>9</v>
-      </c>
-      <c r="F370" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="C370" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D370" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E370" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F370" s="1"/>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A371">
         <v>2021</v>
       </c>
       <c r="B371" t="s">
-        <v>45</v>
-      </c>
-      <c r="C371" t="s">
-        <v>7</v>
-      </c>
-      <c r="D371" t="s">
-        <v>8</v>
-      </c>
-      <c r="E371" t="s">
-        <v>9</v>
-      </c>
-      <c r="F371" s="1" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D371" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E371" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F371" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
